--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30BCF5F-2C6C-4278-97C8-80D9E38D3554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE76593-AB2A-434B-8EDF-84EEC2F5A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="plati an 2" sheetId="1" r:id="rId1"/>
+    <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'plati an 2'!$A$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'plati an 3'!$A$1:$B$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -36,14 +36,53 @@
     <t>Nume</t>
   </si>
   <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Plata sep 2023</t>
+  </si>
+  <si>
+    <t>Plata oct 2023</t>
+  </si>
+  <si>
+    <t>Plata nov 2023</t>
+  </si>
+  <si>
+    <t>Plata dec 2023</t>
+  </si>
+  <si>
+    <t>Plata ian 2024</t>
+  </si>
+  <si>
+    <t>Plata feb 2024</t>
+  </si>
+  <si>
     <t>Plata mar 2024</t>
+  </si>
+  <si>
+    <t>Plata apr 2024</t>
+  </si>
+  <si>
+    <t>Plata mai 2024</t>
+  </si>
+  <si>
+    <t>Plata iun 2024</t>
+  </si>
+  <si>
+    <t>Plata iul 2024</t>
+  </si>
+  <si>
+    <t>george.bondor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bondor George</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +124,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D2228"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,18 +152,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
+        <fgColor rgb="FFB6D7A8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,25 +196,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -182,7 +214,9 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -196,45 +230,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -517,239 +604,857 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="13"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="14"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="14"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="14"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="14"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="14"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="14"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="14"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="14"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="14"/>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="28">
+        <v>724560970</v>
+      </c>
+      <c r="D2" s="29">
+        <v>155</v>
+      </c>
+      <c r="E2" s="30">
+        <v>155</v>
+      </c>
+      <c r="F2" s="30">
+        <v>155</v>
+      </c>
+      <c r="G2" s="30">
+        <v>155</v>
+      </c>
+      <c r="H2" s="30">
+        <v>155</v>
+      </c>
+      <c r="I2" s="30">
+        <v>155</v>
+      </c>
+      <c r="J2" s="30">
+        <v>155</v>
+      </c>
+      <c r="K2" s="30">
+        <v>155</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="14"/>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="14"/>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="14"/>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="12"/>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="12"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="25"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B42" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE76593-AB2A-434B-8EDF-84EEC2F5A531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D09923-37CE-441D-8724-A386C55BFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>Bondor George</t>
+  </si>
+  <si>
+    <t>test@yahoo.com</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -322,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,18 +617,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
@@ -701,23 +710,45 @@
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="28">
+        <v>724560970</v>
+      </c>
+      <c r="D3" s="29">
+        <v>155</v>
+      </c>
+      <c r="E3" s="30">
+        <v>155</v>
+      </c>
+      <c r="F3" s="30">
+        <v>155</v>
+      </c>
+      <c r="G3" s="30">
+        <v>155</v>
+      </c>
+      <c r="H3" s="30">
+        <v>155</v>
+      </c>
+      <c r="I3" s="30">
+        <v>155</v>
+      </c>
+      <c r="J3" s="30">
+        <v>155</v>
+      </c>
+      <c r="K3" s="30">
+        <v>155</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -733,7 +764,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -749,7 +780,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -765,7 +796,7 @@
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -781,7 +812,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -797,7 +828,7 @@
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -813,7 +844,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -829,7 +860,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -845,7 +876,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -861,7 +892,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -877,7 +908,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -893,7 +924,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -909,7 +940,7 @@
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -925,7 +956,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -941,7 +972,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -957,7 +988,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -973,7 +1004,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -989,7 +1020,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1005,7 +1036,7 @@
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1021,7 +1052,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1037,7 +1068,7 @@
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1053,7 +1084,7 @@
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1069,7 +1100,7 @@
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1085,7 +1116,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1101,7 +1132,7 @@
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1117,7 +1148,7 @@
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1133,7 +1164,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -1149,7 +1180,7 @@
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -1165,7 +1196,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -1181,7 +1212,7 @@
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -1197,7 +1228,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -1213,7 +1244,7 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1229,7 +1260,7 @@
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1245,7 +1276,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -1261,7 +1292,7 @@
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -1277,7 +1308,7 @@
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="9"/>
       <c r="C39" s="11"/>
@@ -1293,7 +1324,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -1309,7 +1340,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
@@ -1325,7 +1356,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -1341,7 +1372,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="19"/>
       <c r="B43" s="20"/>
       <c r="C43" s="21"/>
@@ -1357,7 +1388,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
@@ -1373,7 +1404,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
@@ -1389,7 +1420,7 @@
       <c r="M45" s="25"/>
       <c r="N45" s="25"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
@@ -1405,7 +1436,7 @@
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
@@ -1421,7 +1452,7 @@
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
@@ -1437,7 +1468,7 @@
       <c r="M48" s="25"/>
       <c r="N48" s="25"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
@@ -1454,7 +1485,10 @@
       <c r="N49" s="25"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{55B76DBA-0C91-462D-B80C-29C003ACA9B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D09923-37CE-441D-8724-A386C55BFFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E6E3C3-E71D-4C4A-A9F5-9F062E89AFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,9 @@
       <c r="K2" s="30">
         <v>155</v>
       </c>
-      <c r="L2" s="31"/>
+      <c r="L2" s="31">
+        <v>155</v>
+      </c>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
@@ -744,9 +746,15 @@
       <c r="K3" s="30">
         <v>155</v>
       </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
+      <c r="L3" s="31">
+        <v>155</v>
+      </c>
+      <c r="M3" s="31">
+        <v>155</v>
+      </c>
+      <c r="N3" s="31">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B70F790-A501-4EED-9B76-9A5B469571FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ABE939-0757-4D10-93FC-E6B97966F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -234,12 +234,6 @@
     <t>Lenghel Kinga</t>
   </si>
   <si>
-    <t>danaiza2000@yahoo.com</t>
-  </si>
-  <si>
-    <t>Georghiou Izabel</t>
-  </si>
-  <si>
     <t>paveldoru@gmail.com</t>
   </si>
   <si>
@@ -496,12 +490,6 @@
   </si>
   <si>
     <t>Lankelin Valentina Maria</t>
-  </si>
-  <si>
-    <t>coroi_alina@mail.ru</t>
-  </si>
-  <si>
-    <t>Artamonov Alina</t>
   </si>
   <si>
     <t>marinescurebecca4@gmail.com</t>
@@ -710,7 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -800,6 +788,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,9 +1076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1176,10 +1167,12 @@
       <c r="K2" s="14">
         <v>155</v>
       </c>
-      <c r="L2" s="14">
-        <v>155</v>
-      </c>
-      <c r="M2" s="15"/>
+      <c r="L2" s="13">
+        <v>155</v>
+      </c>
+      <c r="M2" s="13">
+        <v>155</v>
+      </c>
       <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1216,10 +1209,10 @@
       <c r="K3" s="24">
         <v>155</v>
       </c>
-      <c r="L3" s="24">
-        <v>155</v>
-      </c>
-      <c r="M3" s="24">
+      <c r="L3" s="23">
+        <v>155</v>
+      </c>
+      <c r="M3" s="23">
         <v>155</v>
       </c>
       <c r="N3" s="25"/>
@@ -1258,10 +1251,12 @@
       <c r="K4" s="24">
         <v>155</v>
       </c>
-      <c r="L4" s="24">
-        <v>155</v>
-      </c>
-      <c r="M4" s="25"/>
+      <c r="L4" s="23">
+        <v>155</v>
+      </c>
+      <c r="M4" s="23">
+        <v>155</v>
+      </c>
       <c r="N4" s="25"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1296,8 +1291,8 @@
         <v>155</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1334,14 +1329,14 @@
       <c r="K6" s="24">
         <v>155</v>
       </c>
-      <c r="L6" s="24">
-        <v>155</v>
-      </c>
-      <c r="M6" s="24">
+      <c r="L6" s="23">
+        <v>155</v>
+      </c>
+      <c r="M6" s="23">
         <v>155</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1378,10 +1373,12 @@
       <c r="K7" s="24">
         <v>155</v>
       </c>
-      <c r="L7" s="24">
-        <v>155</v>
-      </c>
-      <c r="M7" s="25"/>
+      <c r="L7" s="23">
+        <v>155</v>
+      </c>
+      <c r="M7" s="23">
+        <v>155</v>
+      </c>
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1418,10 +1415,12 @@
       <c r="K8" s="24">
         <v>155</v>
       </c>
-      <c r="L8" s="24">
-        <v>155</v>
-      </c>
-      <c r="M8" s="25"/>
+      <c r="L8" s="23">
+        <v>155</v>
+      </c>
+      <c r="M8" s="23">
+        <v>155</v>
+      </c>
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1458,14 +1457,14 @@
       <c r="K9" s="24">
         <v>155</v>
       </c>
-      <c r="L9" s="24">
-        <v>155</v>
-      </c>
-      <c r="M9" s="24">
+      <c r="L9" s="23">
+        <v>155</v>
+      </c>
+      <c r="M9" s="23">
         <v>155</v>
       </c>
       <c r="N9" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1502,8 +1501,8 @@
       <c r="K10" s="24">
         <v>155</v>
       </c>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1540,10 +1539,12 @@
       <c r="K11" s="24">
         <v>155</v>
       </c>
-      <c r="L11" s="24">
-        <v>155</v>
-      </c>
-      <c r="M11" s="25"/>
+      <c r="L11" s="23">
+        <v>155</v>
+      </c>
+      <c r="M11" s="23">
+        <v>155</v>
+      </c>
       <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1574,8 +1575,8 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1612,10 +1613,12 @@
       <c r="K13" s="24">
         <v>155</v>
       </c>
-      <c r="L13" s="24">
-        <v>155</v>
-      </c>
-      <c r="M13" s="25"/>
+      <c r="L13" s="23">
+        <v>155</v>
+      </c>
+      <c r="M13" s="23">
+        <v>155</v>
+      </c>
       <c r="N13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1652,10 +1655,12 @@
       <c r="K14" s="24">
         <v>155</v>
       </c>
-      <c r="L14" s="24">
-        <v>155</v>
-      </c>
-      <c r="M14" s="25"/>
+      <c r="L14" s="23">
+        <v>155</v>
+      </c>
+      <c r="M14" s="23">
+        <v>155</v>
+      </c>
       <c r="N14" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1692,10 +1697,12 @@
       <c r="K15" s="24">
         <v>155</v>
       </c>
-      <c r="L15" s="24">
-        <v>155</v>
-      </c>
-      <c r="M15" s="25"/>
+      <c r="L15" s="23">
+        <v>155</v>
+      </c>
+      <c r="M15" s="23">
+        <v>155</v>
+      </c>
       <c r="N15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1732,14 +1739,14 @@
       <c r="K16" s="24">
         <v>155</v>
       </c>
-      <c r="L16" s="24">
-        <v>155</v>
-      </c>
-      <c r="M16" s="24">
+      <c r="L16" s="23">
+        <v>155</v>
+      </c>
+      <c r="M16" s="23">
         <v>155</v>
       </c>
       <c r="N16" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1776,10 +1783,12 @@
       <c r="K17" s="24">
         <v>155</v>
       </c>
-      <c r="L17" s="24">
-        <v>155</v>
-      </c>
-      <c r="M17" s="25"/>
+      <c r="L17" s="23">
+        <v>155</v>
+      </c>
+      <c r="M17" s="23">
+        <v>155</v>
+      </c>
       <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1816,10 +1825,12 @@
       <c r="K18" s="24">
         <v>155</v>
       </c>
-      <c r="L18" s="24">
-        <v>155</v>
-      </c>
-      <c r="M18" s="25"/>
+      <c r="L18" s="23">
+        <v>155</v>
+      </c>
+      <c r="M18" s="23">
+        <v>155</v>
+      </c>
       <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1850,10 +1861,12 @@
       <c r="K19" s="24">
         <v>135</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>135</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="23">
+        <v>135</v>
+      </c>
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1890,10 +1903,10 @@
       <c r="K20" s="24">
         <v>155</v>
       </c>
-      <c r="L20" s="24">
-        <v>155</v>
-      </c>
-      <c r="M20" s="24">
+      <c r="L20" s="23">
+        <v>155</v>
+      </c>
+      <c r="M20" s="23">
         <v>155</v>
       </c>
       <c r="N20" s="24">
@@ -1934,10 +1947,12 @@
       <c r="K21" s="24">
         <v>155</v>
       </c>
-      <c r="L21" s="24">
-        <v>155</v>
-      </c>
-      <c r="M21" s="25"/>
+      <c r="L21" s="23">
+        <v>155</v>
+      </c>
+      <c r="M21" s="23">
+        <v>155</v>
+      </c>
       <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1951,37 +1966,37 @@
         <v>741573383</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="M22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="L22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="N22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2018,10 +2033,10 @@
       <c r="K23" s="24">
         <v>155</v>
       </c>
-      <c r="L23" s="24">
-        <v>155</v>
-      </c>
-      <c r="M23" s="24">
+      <c r="L23" s="23">
+        <v>155</v>
+      </c>
+      <c r="M23" s="23">
         <v>155</v>
       </c>
       <c r="N23" s="25"/>
@@ -2060,14 +2075,14 @@
       <c r="K24" s="24">
         <v>155</v>
       </c>
-      <c r="L24" s="24">
-        <v>155</v>
-      </c>
-      <c r="M24" s="24">
+      <c r="L24" s="23">
+        <v>155</v>
+      </c>
+      <c r="M24" s="23">
         <v>155</v>
       </c>
       <c r="N24" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2104,10 +2119,12 @@
       <c r="K25" s="24">
         <v>155</v>
       </c>
-      <c r="L25" s="24">
-        <v>155</v>
-      </c>
-      <c r="M25" s="25"/>
+      <c r="L25" s="23">
+        <v>155</v>
+      </c>
+      <c r="M25" s="23">
+        <v>155</v>
+      </c>
       <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2126,14 +2143,30 @@
       <c r="E26" s="24">
         <v>155</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
+      <c r="F26" s="30">
+        <v>155</v>
+      </c>
+      <c r="G26" s="30">
+        <v>155</v>
+      </c>
+      <c r="H26" s="30">
+        <v>155</v>
+      </c>
+      <c r="I26" s="30">
+        <v>155</v>
+      </c>
+      <c r="J26" s="30">
+        <v>155</v>
+      </c>
+      <c r="K26" s="30">
+        <v>155</v>
+      </c>
+      <c r="L26" s="31">
+        <v>155</v>
+      </c>
+      <c r="M26" s="31">
+        <v>155</v>
+      </c>
       <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2170,10 +2203,12 @@
       <c r="K27" s="24">
         <v>155</v>
       </c>
-      <c r="L27" s="24">
-        <v>155</v>
-      </c>
-      <c r="M27" s="25"/>
+      <c r="L27" s="23">
+        <v>155</v>
+      </c>
+      <c r="M27" s="23">
+        <v>155</v>
+      </c>
       <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2184,7 +2219,7 @@
         <v>69</v>
       </c>
       <c r="C28" s="9">
-        <v>764888445</v>
+        <v>755931135</v>
       </c>
       <c r="D28" s="23">
         <v>155</v>
@@ -2210,21 +2245,23 @@
       <c r="K28" s="24">
         <v>155</v>
       </c>
-      <c r="L28" s="24">
-        <v>155</v>
-      </c>
-      <c r="M28" s="25"/>
+      <c r="L28" s="23">
+        <v>155</v>
+      </c>
+      <c r="M28" s="23">
+        <v>155</v>
+      </c>
       <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="20" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C29" s="9">
-        <v>755931135</v>
+        <v>33782781442</v>
       </c>
       <c r="D29" s="23">
         <v>155</v>
@@ -2250,21 +2287,23 @@
       <c r="K29" s="24">
         <v>155</v>
       </c>
-      <c r="L29" s="24">
-        <v>155</v>
-      </c>
-      <c r="M29" s="25"/>
+      <c r="L29" s="23">
+        <v>155</v>
+      </c>
+      <c r="M29" s="23">
+        <v>155</v>
+      </c>
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="9">
-        <v>33782781442</v>
+        <v>730913443</v>
       </c>
       <c r="D30" s="23">
         <v>155</v>
@@ -2290,10 +2329,12 @@
       <c r="K30" s="24">
         <v>155</v>
       </c>
-      <c r="L30" s="24">
-        <v>155</v>
-      </c>
-      <c r="M30" s="25"/>
+      <c r="L30" s="23">
+        <v>155</v>
+      </c>
+      <c r="M30" s="23">
+        <v>155</v>
+      </c>
       <c r="N30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2304,7 +2345,7 @@
         <v>75</v>
       </c>
       <c r="C31" s="9">
-        <v>730913443</v>
+        <v>751709016</v>
       </c>
       <c r="D31" s="23">
         <v>155</v>
@@ -2330,10 +2371,12 @@
       <c r="K31" s="24">
         <v>155</v>
       </c>
-      <c r="L31" s="24">
-        <v>155</v>
-      </c>
-      <c r="M31" s="25"/>
+      <c r="L31" s="23">
+        <v>155</v>
+      </c>
+      <c r="M31" s="23">
+        <v>155</v>
+      </c>
       <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2344,7 +2387,7 @@
         <v>77</v>
       </c>
       <c r="C32" s="9">
-        <v>751709016</v>
+        <v>773787056</v>
       </c>
       <c r="D32" s="23">
         <v>155</v>
@@ -2370,11 +2413,15 @@
       <c r="K32" s="24">
         <v>155</v>
       </c>
-      <c r="L32" s="24">
-        <v>155</v>
-      </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="25"/>
+      <c r="L32" s="23">
+        <v>155</v>
+      </c>
+      <c r="M32" s="23">
+        <v>155</v>
+      </c>
+      <c r="N32" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
@@ -2384,7 +2431,7 @@
         <v>79</v>
       </c>
       <c r="C33" s="9">
-        <v>773787056</v>
+        <v>749020388</v>
       </c>
       <c r="D33" s="23">
         <v>155</v>
@@ -2410,15 +2457,13 @@
       <c r="K33" s="24">
         <v>155</v>
       </c>
-      <c r="L33" s="24">
-        <v>155</v>
-      </c>
-      <c r="M33" s="24">
-        <v>155</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="L33" s="23">
+        <v>155</v>
+      </c>
+      <c r="M33" s="23">
+        <v>155</v>
+      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
@@ -2428,7 +2473,7 @@
         <v>81</v>
       </c>
       <c r="C34" s="9">
-        <v>749020388</v>
+        <v>743229325</v>
       </c>
       <c r="D34" s="23">
         <v>155</v>
@@ -2454,21 +2499,25 @@
       <c r="K34" s="24">
         <v>155</v>
       </c>
-      <c r="L34" s="24">
-        <v>155</v>
-      </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="25"/>
+      <c r="L34" s="23">
+        <v>155</v>
+      </c>
+      <c r="M34" s="23">
+        <v>155</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C35" s="9">
-        <v>743229325</v>
+        <v>724560970</v>
       </c>
       <c r="D35" s="23">
         <v>155</v>
@@ -2494,25 +2543,23 @@
       <c r="K35" s="24">
         <v>155</v>
       </c>
-      <c r="L35" s="24">
-        <v>155</v>
-      </c>
-      <c r="M35" s="24">
-        <v>155</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="L35" s="23">
+        <v>155</v>
+      </c>
+      <c r="M35" s="23">
+        <v>155</v>
+      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="C36" s="9">
-        <v>724560970</v>
+        <v>751343396</v>
       </c>
       <c r="D36" s="23">
         <v>155</v>
@@ -2538,10 +2585,12 @@
       <c r="K36" s="24">
         <v>155</v>
       </c>
-      <c r="L36" s="24">
-        <v>155</v>
-      </c>
-      <c r="M36" s="25"/>
+      <c r="L36" s="23">
+        <v>155</v>
+      </c>
+      <c r="M36" s="23">
+        <v>155</v>
+      </c>
       <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2552,7 +2601,7 @@
         <v>85</v>
       </c>
       <c r="C37" s="9">
-        <v>751343396</v>
+        <v>747601279</v>
       </c>
       <c r="D37" s="23">
         <v>155</v>
@@ -2578,10 +2627,12 @@
       <c r="K37" s="24">
         <v>155</v>
       </c>
-      <c r="L37" s="24">
-        <v>155</v>
-      </c>
-      <c r="M37" s="25"/>
+      <c r="L37" s="23">
+        <v>155</v>
+      </c>
+      <c r="M37" s="23">
+        <v>155</v>
+      </c>
       <c r="N37" s="25"/>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2592,7 +2643,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="9">
-        <v>747601279</v>
+        <v>743241140</v>
       </c>
       <c r="D38" s="23">
         <v>155</v>
@@ -2618,10 +2669,12 @@
       <c r="K38" s="24">
         <v>155</v>
       </c>
-      <c r="L38" s="24">
-        <v>155</v>
-      </c>
-      <c r="M38" s="25"/>
+      <c r="L38" s="23">
+        <v>155</v>
+      </c>
+      <c r="M38" s="23">
+        <v>155</v>
+      </c>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2632,7 +2685,7 @@
         <v>89</v>
       </c>
       <c r="C39" s="9">
-        <v>743241140</v>
+        <v>732009826</v>
       </c>
       <c r="D39" s="23">
         <v>155</v>
@@ -2658,10 +2711,12 @@
       <c r="K39" s="24">
         <v>155</v>
       </c>
-      <c r="L39" s="24">
-        <v>155</v>
-      </c>
-      <c r="M39" s="25"/>
+      <c r="L39" s="23">
+        <v>155</v>
+      </c>
+      <c r="M39" s="23">
+        <v>155</v>
+      </c>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2672,7 +2727,7 @@
         <v>91</v>
       </c>
       <c r="C40" s="9">
-        <v>732009826</v>
+        <v>730504732</v>
       </c>
       <c r="D40" s="23">
         <v>155</v>
@@ -2698,11 +2753,15 @@
       <c r="K40" s="24">
         <v>155</v>
       </c>
-      <c r="L40" s="24">
-        <v>155</v>
-      </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
+      <c r="L40" s="23">
+        <v>155</v>
+      </c>
+      <c r="M40" s="23">
+        <v>155</v>
+      </c>
+      <c r="N40" s="24">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
@@ -2712,7 +2771,7 @@
         <v>93</v>
       </c>
       <c r="C41" s="9">
-        <v>730504732</v>
+        <v>771756831</v>
       </c>
       <c r="D41" s="23">
         <v>155</v>
@@ -2738,15 +2797,13 @@
       <c r="K41" s="24">
         <v>155</v>
       </c>
-      <c r="L41" s="24">
-        <v>155</v>
-      </c>
-      <c r="M41" s="24">
-        <v>155</v>
-      </c>
-      <c r="N41" s="24">
-        <v>155</v>
-      </c>
+      <c r="L41" s="23">
+        <v>155</v>
+      </c>
+      <c r="M41" s="23">
+        <v>155</v>
+      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
@@ -2756,7 +2813,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="9">
-        <v>771756831</v>
+        <v>748883235</v>
       </c>
       <c r="D42" s="23">
         <v>155</v>
@@ -2782,10 +2839,12 @@
       <c r="K42" s="24">
         <v>155</v>
       </c>
-      <c r="L42" s="24">
-        <v>155</v>
-      </c>
-      <c r="M42" s="25"/>
+      <c r="L42" s="23">
+        <v>155</v>
+      </c>
+      <c r="M42" s="23">
+        <v>155</v>
+      </c>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2796,36 +2855,30 @@
         <v>97</v>
       </c>
       <c r="C43" s="9">
-        <v>748883235</v>
+        <v>771143821</v>
       </c>
       <c r="D43" s="23">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E43" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F43" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="G43" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="H43" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="I43" s="24">
-        <v>155</v>
-      </c>
-      <c r="J43" s="24">
-        <v>155</v>
-      </c>
-      <c r="K43" s="24">
-        <v>155</v>
-      </c>
-      <c r="L43" s="24">
-        <v>155</v>
-      </c>
-      <c r="M43" s="25"/>
+        <v>80</v>
+      </c>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
       <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2836,31 +2889,41 @@
         <v>99</v>
       </c>
       <c r="C44" s="9">
-        <v>771143821</v>
+        <v>742201134</v>
       </c>
       <c r="D44" s="23">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E44" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F44" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G44" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="H44" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="I44" s="24">
-        <v>80</v>
-      </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="J44" s="24">
+        <v>155</v>
+      </c>
+      <c r="K44" s="24">
+        <v>155</v>
+      </c>
+      <c r="L44" s="23">
+        <v>155</v>
+      </c>
+      <c r="M44" s="23">
+        <v>155</v>
+      </c>
+      <c r="N44" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
@@ -2870,7 +2933,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="9">
-        <v>742201134</v>
+        <v>731453375</v>
       </c>
       <c r="D45" s="23">
         <v>155</v>
@@ -2896,15 +2959,13 @@
       <c r="K45" s="24">
         <v>155</v>
       </c>
-      <c r="L45" s="24">
-        <v>155</v>
-      </c>
-      <c r="M45" s="24">
-        <v>155</v>
-      </c>
-      <c r="N45" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="L45" s="23">
+        <v>155</v>
+      </c>
+      <c r="M45" s="23">
+        <v>155</v>
+      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
@@ -2914,7 +2975,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="9">
-        <v>731453375</v>
+        <v>41793609481</v>
       </c>
       <c r="D46" s="23">
         <v>155</v>
@@ -2940,10 +3001,12 @@
       <c r="K46" s="24">
         <v>155</v>
       </c>
-      <c r="L46" s="24">
-        <v>155</v>
-      </c>
-      <c r="M46" s="25"/>
+      <c r="L46" s="23">
+        <v>155</v>
+      </c>
+      <c r="M46" s="23">
+        <v>155</v>
+      </c>
       <c r="N46" s="25"/>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2954,36 +3017,18 @@
         <v>105</v>
       </c>
       <c r="C47" s="9">
-        <v>41793609481</v>
-      </c>
-      <c r="D47" s="23">
-        <v>155</v>
-      </c>
-      <c r="E47" s="24">
-        <v>155</v>
-      </c>
-      <c r="F47" s="24">
-        <v>155</v>
-      </c>
-      <c r="G47" s="24">
-        <v>155</v>
-      </c>
-      <c r="H47" s="24">
-        <v>155</v>
-      </c>
-      <c r="I47" s="24">
-        <v>155</v>
-      </c>
-      <c r="J47" s="24">
-        <v>155</v>
-      </c>
-      <c r="K47" s="24">
-        <v>155</v>
-      </c>
-      <c r="L47" s="24">
-        <v>155</v>
-      </c>
-      <c r="M47" s="25"/>
+        <v>34666220586</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
       <c r="N47" s="25"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2994,18 +3039,38 @@
         <v>107</v>
       </c>
       <c r="C48" s="9">
-        <v>34666220586</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
+        <v>723385958</v>
+      </c>
+      <c r="D48" s="23">
+        <v>155</v>
+      </c>
+      <c r="E48" s="24">
+        <v>155</v>
+      </c>
+      <c r="F48" s="24">
+        <v>155</v>
+      </c>
+      <c r="G48" s="24">
+        <v>155</v>
+      </c>
+      <c r="H48" s="24">
+        <v>155</v>
+      </c>
+      <c r="I48" s="24">
+        <v>155</v>
+      </c>
+      <c r="J48" s="24">
+        <v>155</v>
+      </c>
+      <c r="K48" s="24">
+        <v>155</v>
+      </c>
+      <c r="L48" s="23">
+        <v>155</v>
+      </c>
+      <c r="M48" s="23">
+        <v>155</v>
+      </c>
       <c r="N48" s="25"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3016,7 +3081,7 @@
         <v>109</v>
       </c>
       <c r="C49" s="9">
-        <v>723385958</v>
+        <v>744112116</v>
       </c>
       <c r="D49" s="23">
         <v>155</v>
@@ -3042,11 +3107,15 @@
       <c r="K49" s="24">
         <v>155</v>
       </c>
-      <c r="L49" s="24">
-        <v>155</v>
-      </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
+      <c r="L49" s="23">
+        <v>155</v>
+      </c>
+      <c r="M49" s="23">
+        <v>155</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
@@ -3056,7 +3125,7 @@
         <v>111</v>
       </c>
       <c r="C50" s="9">
-        <v>744112116</v>
+        <v>720049170</v>
       </c>
       <c r="D50" s="23">
         <v>155</v>
@@ -3082,14 +3151,14 @@
       <c r="K50" s="24">
         <v>155</v>
       </c>
-      <c r="L50" s="24">
-        <v>155</v>
-      </c>
-      <c r="M50" s="24">
-        <v>155</v>
-      </c>
-      <c r="N50" s="24" t="s">
-        <v>172</v>
+      <c r="L50" s="23">
+        <v>155</v>
+      </c>
+      <c r="M50" s="23">
+        <v>155</v>
+      </c>
+      <c r="N50" s="24">
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3100,7 +3169,7 @@
         <v>113</v>
       </c>
       <c r="C51" s="9">
-        <v>720049170</v>
+        <v>410779995351</v>
       </c>
       <c r="D51" s="23">
         <v>155</v>
@@ -3108,103 +3177,101 @@
       <c r="E51" s="24">
         <v>155</v>
       </c>
-      <c r="F51" s="24">
-        <v>155</v>
-      </c>
-      <c r="G51" s="24">
-        <v>155</v>
-      </c>
-      <c r="H51" s="24">
-        <v>155</v>
-      </c>
-      <c r="I51" s="24">
-        <v>155</v>
-      </c>
-      <c r="J51" s="24">
-        <v>155</v>
-      </c>
-      <c r="K51" s="24">
-        <v>155</v>
-      </c>
-      <c r="L51" s="24">
-        <v>155</v>
-      </c>
-      <c r="M51" s="24">
-        <v>155</v>
-      </c>
-      <c r="N51" s="24">
-        <v>155</v>
-      </c>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="25"/>
     </row>
     <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="9">
-        <v>410779995351</v>
-      </c>
-      <c r="D52" s="23">
-        <v>155</v>
-      </c>
-      <c r="E52" s="24">
-        <v>155</v>
-      </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
+      <c r="C52" s="19">
+        <v>7796402501</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K52" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L52" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="M52" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="18" t="s">
+      <c r="A53" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="19">
-        <v>7796402501</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="I53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="M53" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="N53" s="28" t="s">
-        <v>172</v>
-      </c>
+      <c r="C53" s="9">
+        <v>757678280</v>
+      </c>
+      <c r="D53" s="23">
+        <v>155</v>
+      </c>
+      <c r="E53" s="24">
+        <v>155</v>
+      </c>
+      <c r="F53" s="24">
+        <v>155</v>
+      </c>
+      <c r="G53" s="24">
+        <v>155</v>
+      </c>
+      <c r="H53" s="24">
+        <v>155</v>
+      </c>
+      <c r="I53" s="24">
+        <v>155</v>
+      </c>
+      <c r="J53" s="24">
+        <v>155</v>
+      </c>
+      <c r="K53" s="24">
+        <v>155</v>
+      </c>
+      <c r="L53" s="23">
+        <v>155</v>
+      </c>
+      <c r="M53" s="23">
+        <v>155</v>
+      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
@@ -3214,7 +3281,7 @@
         <v>119</v>
       </c>
       <c r="C54" s="9">
-        <v>757678280</v>
+        <v>744705023</v>
       </c>
       <c r="D54" s="23">
         <v>155</v>
@@ -3240,21 +3307,23 @@
       <c r="K54" s="24">
         <v>155</v>
       </c>
-      <c r="L54" s="24">
-        <v>155</v>
-      </c>
-      <c r="M54" s="25"/>
+      <c r="L54" s="23">
+        <v>155</v>
+      </c>
+      <c r="M54" s="23">
+        <v>155</v>
+      </c>
       <c r="N54" s="25"/>
     </row>
     <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="20" t="s">
         <v>120</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="9">
-        <v>744705023</v>
+        <v>724385533</v>
       </c>
       <c r="D55" s="23">
         <v>155</v>
@@ -3265,86 +3334,78 @@
       <c r="F55" s="24">
         <v>155</v>
       </c>
-      <c r="G55" s="24">
-        <v>155</v>
-      </c>
-      <c r="H55" s="24">
-        <v>155</v>
-      </c>
-      <c r="I55" s="24">
-        <v>155</v>
-      </c>
-      <c r="J55" s="24">
-        <v>155</v>
-      </c>
-      <c r="K55" s="24">
-        <v>155</v>
-      </c>
-      <c r="L55" s="24">
-        <v>155</v>
-      </c>
-      <c r="M55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="29"/>
       <c r="N55" s="25"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="20" t="s">
+      <c r="A56" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="9">
-        <v>724385533</v>
-      </c>
-      <c r="D56" s="23">
-        <v>155</v>
-      </c>
-      <c r="E56" s="24">
-        <v>155</v>
-      </c>
-      <c r="F56" s="24">
-        <v>155</v>
-      </c>
+        <v>722283194</v>
+      </c>
+      <c r="D56" s="29"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
       <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="29"/>
       <c r="N56" s="25"/>
     </row>
     <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="20" t="s">
         <v>124</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="9">
-        <v>722283194</v>
-      </c>
-      <c r="D57" s="29"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
+        <v>742083396</v>
+      </c>
+      <c r="D57" s="23">
+        <v>155</v>
+      </c>
+      <c r="E57" s="24">
+        <v>155</v>
+      </c>
+      <c r="F57" s="24">
+        <v>155</v>
+      </c>
+      <c r="G57" s="24">
+        <v>155</v>
+      </c>
+      <c r="H57" s="30">
+        <v>130</v>
+      </c>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
       <c r="N57" s="25"/>
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="9">
-        <v>742083396</v>
+        <v>751700208</v>
       </c>
       <c r="D58" s="23">
         <v>155</v>
@@ -3358,14 +3419,24 @@
       <c r="G58" s="24">
         <v>155</v>
       </c>
-      <c r="H58" s="30">
-        <v>130</v>
-      </c>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
+      <c r="H58" s="24">
+        <v>155</v>
+      </c>
+      <c r="I58" s="24">
+        <v>155</v>
+      </c>
+      <c r="J58" s="24">
+        <v>155</v>
+      </c>
+      <c r="K58" s="24">
+        <v>155</v>
+      </c>
+      <c r="L58" s="23">
+        <v>155</v>
+      </c>
+      <c r="M58" s="23">
+        <v>155</v>
+      </c>
       <c r="N58" s="25"/>
     </row>
     <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3376,7 +3447,7 @@
         <v>129</v>
       </c>
       <c r="C59" s="9">
-        <v>751700208</v>
+        <v>740759994</v>
       </c>
       <c r="D59" s="23">
         <v>155</v>
@@ -3384,87 +3455,89 @@
       <c r="E59" s="24">
         <v>155</v>
       </c>
-      <c r="F59" s="24">
-        <v>155</v>
-      </c>
-      <c r="G59" s="24">
-        <v>155</v>
-      </c>
-      <c r="H59" s="24">
-        <v>155</v>
-      </c>
-      <c r="I59" s="24">
-        <v>155</v>
-      </c>
-      <c r="J59" s="24">
-        <v>155</v>
-      </c>
-      <c r="K59" s="24">
-        <v>155</v>
-      </c>
-      <c r="L59" s="24">
-        <v>155</v>
-      </c>
-      <c r="M59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="29"/>
       <c r="N59" s="25"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="9">
-        <v>740759994</v>
-      </c>
-      <c r="D60" s="23">
-        <v>155</v>
-      </c>
-      <c r="E60" s="24">
-        <v>155</v>
-      </c>
+      <c r="C60" s="10">
+        <v>723191854</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
       <c r="N60" s="25"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="10">
-        <v>723191854</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
+      <c r="C61" s="9">
+        <v>726489020</v>
+      </c>
+      <c r="D61" s="23">
+        <v>155</v>
+      </c>
+      <c r="E61" s="24">
+        <v>155</v>
+      </c>
+      <c r="F61" s="24">
+        <v>155</v>
+      </c>
+      <c r="G61" s="24">
+        <v>155</v>
+      </c>
+      <c r="H61" s="24">
+        <v>155</v>
+      </c>
+      <c r="I61" s="24">
+        <v>155</v>
+      </c>
+      <c r="J61" s="24">
+        <v>155</v>
+      </c>
+      <c r="K61" s="24">
+        <v>155</v>
+      </c>
+      <c r="L61" s="23">
+        <v>155</v>
+      </c>
+      <c r="M61" s="23">
+        <v>155</v>
+      </c>
       <c r="N61" s="25"/>
     </row>
     <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="9">
-        <v>726489020</v>
+        <v>745525405</v>
       </c>
       <c r="D62" s="23">
         <v>155</v>
@@ -3490,10 +3563,12 @@
       <c r="K62" s="24">
         <v>155</v>
       </c>
-      <c r="L62" s="24">
-        <v>155</v>
-      </c>
-      <c r="M62" s="25"/>
+      <c r="L62" s="23">
+        <v>155</v>
+      </c>
+      <c r="M62" s="23">
+        <v>155</v>
+      </c>
       <c r="N62" s="25"/>
     </row>
     <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3504,36 +3579,18 @@
         <v>137</v>
       </c>
       <c r="C63" s="9">
-        <v>745525405</v>
-      </c>
-      <c r="D63" s="23">
-        <v>155</v>
-      </c>
-      <c r="E63" s="24">
-        <v>155</v>
-      </c>
-      <c r="F63" s="24">
-        <v>155</v>
-      </c>
-      <c r="G63" s="24">
-        <v>155</v>
-      </c>
-      <c r="H63" s="24">
-        <v>155</v>
-      </c>
-      <c r="I63" s="24">
-        <v>155</v>
-      </c>
-      <c r="J63" s="24">
-        <v>155</v>
-      </c>
-      <c r="K63" s="24">
-        <v>155</v>
-      </c>
-      <c r="L63" s="24">
-        <v>155</v>
-      </c>
-      <c r="M63" s="25"/>
+        <v>720878686</v>
+      </c>
+      <c r="D63" s="29"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
       <c r="N63" s="25"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3544,67 +3601,91 @@
         <v>139</v>
       </c>
       <c r="C64" s="9">
-        <v>720878686</v>
-      </c>
-      <c r="D64" s="29"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
+        <v>740074538</v>
+      </c>
+      <c r="D64" s="23">
+        <v>155</v>
+      </c>
+      <c r="E64" s="24">
+        <v>155</v>
+      </c>
+      <c r="F64" s="24">
+        <v>155</v>
+      </c>
+      <c r="G64" s="24">
+        <v>155</v>
+      </c>
+      <c r="H64" s="24">
+        <v>155</v>
+      </c>
+      <c r="I64" s="24">
+        <v>155</v>
+      </c>
+      <c r="J64" s="24">
+        <v>155</v>
+      </c>
+      <c r="K64" s="24">
+        <v>155</v>
+      </c>
+      <c r="L64" s="23">
+        <v>155</v>
+      </c>
+      <c r="M64" s="23">
+        <v>155</v>
+      </c>
       <c r="N64" s="25"/>
     </row>
     <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="20" t="s">
         <v>140</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C65" s="9">
-        <v>740074538</v>
+        <v>31687728451</v>
       </c>
       <c r="D65" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J65" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K65" s="24">
-        <v>155</v>
-      </c>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
+        <v>55</v>
+      </c>
+      <c r="L65" s="23">
+        <v>55</v>
+      </c>
+      <c r="M65" s="23">
+        <v>55</v>
+      </c>
       <c r="N65" s="25"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C66" s="9">
-        <v>31687728451</v>
+        <v>373069265735</v>
       </c>
       <c r="D66" s="23">
         <v>55</v>
@@ -3630,10 +3711,12 @@
       <c r="K66" s="24">
         <v>55</v>
       </c>
-      <c r="L66" s="24">
-        <v>55</v>
-      </c>
-      <c r="M66" s="25"/>
+      <c r="L66" s="23">
+        <v>55</v>
+      </c>
+      <c r="M66" s="23">
+        <v>55</v>
+      </c>
       <c r="N66" s="25"/>
     </row>
     <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3644,37 +3727,41 @@
         <v>145</v>
       </c>
       <c r="C67" s="9">
-        <v>373069265735</v>
+        <v>740186024</v>
       </c>
       <c r="D67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J67" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K67" s="24">
-        <v>55</v>
-      </c>
-      <c r="L67" s="24">
-        <v>55</v>
-      </c>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="L67" s="23">
+        <v>155</v>
+      </c>
+      <c r="M67" s="23">
+        <v>155</v>
+      </c>
+      <c r="N67" s="24">
+        <v>155</v>
+      </c>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
@@ -3684,40 +3771,40 @@
         <v>147</v>
       </c>
       <c r="C68" s="9">
-        <v>740186024</v>
+        <v>37379706120</v>
       </c>
       <c r="D68" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K68" s="24">
-        <v>155</v>
-      </c>
-      <c r="L68" s="24">
-        <v>155</v>
-      </c>
-      <c r="M68" s="24">
-        <v>155</v>
+        <v>55</v>
+      </c>
+      <c r="L68" s="23">
+        <v>55</v>
+      </c>
+      <c r="M68" s="23">
+        <v>55</v>
       </c>
       <c r="N68" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3728,7 +3815,7 @@
         <v>149</v>
       </c>
       <c r="C69" s="9">
-        <v>37379706120</v>
+        <v>37361183234</v>
       </c>
       <c r="D69" s="23">
         <v>55</v>
@@ -3754,10 +3841,10 @@
       <c r="K69" s="24">
         <v>55</v>
       </c>
-      <c r="L69" s="24">
-        <v>55</v>
-      </c>
-      <c r="M69" s="24">
+      <c r="L69" s="23">
+        <v>55</v>
+      </c>
+      <c r="M69" s="23">
         <v>55</v>
       </c>
       <c r="N69" s="24">
@@ -3772,7 +3859,7 @@
         <v>151</v>
       </c>
       <c r="C70" s="9">
-        <v>37361183234</v>
+        <v>37369815388</v>
       </c>
       <c r="D70" s="23">
         <v>55</v>
@@ -3798,8 +3885,12 @@
       <c r="K70" s="24">
         <v>55</v>
       </c>
-      <c r="L70" s="25"/>
-      <c r="M70" s="25"/>
+      <c r="L70" s="23">
+        <v>55</v>
+      </c>
+      <c r="M70" s="23">
+        <v>55</v>
+      </c>
       <c r="N70" s="25"/>
     </row>
     <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3810,33 +3901,41 @@
         <v>153</v>
       </c>
       <c r="C71" s="9">
-        <v>37369815388</v>
+        <v>358406402278</v>
       </c>
       <c r="D71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E71" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F71" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G71" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H71" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I71" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J71" s="24">
-        <v>55</v>
-      </c>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="25"/>
-      <c r="N71" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="K71" s="24">
+        <v>155</v>
+      </c>
+      <c r="L71" s="23">
+        <v>155</v>
+      </c>
+      <c r="M71" s="23">
+        <v>155</v>
+      </c>
+      <c r="N71" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
@@ -3846,7 +3945,7 @@
         <v>155</v>
       </c>
       <c r="C72" s="9">
-        <v>358406402278</v>
+        <v>786602562</v>
       </c>
       <c r="D72" s="23">
         <v>155</v>
@@ -3854,33 +3953,23 @@
       <c r="E72" s="24">
         <v>155</v>
       </c>
-      <c r="F72" s="24">
-        <v>155</v>
-      </c>
+      <c r="F72" s="26"/>
       <c r="G72" s="24">
         <v>155</v>
       </c>
       <c r="H72" s="24">
         <v>155</v>
       </c>
-      <c r="I72" s="24">
-        <v>155</v>
-      </c>
-      <c r="J72" s="24">
-        <v>155</v>
-      </c>
-      <c r="K72" s="24">
-        <v>155</v>
-      </c>
-      <c r="L72" s="24">
-        <v>155</v>
-      </c>
-      <c r="M72" s="24">
-        <v>155</v>
-      </c>
-      <c r="N72" s="24" t="s">
-        <v>172</v>
-      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="23">
+        <v>155</v>
+      </c>
+      <c r="M72" s="23">
+        <v>155</v>
+      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
@@ -3890,7 +3979,7 @@
         <v>157</v>
       </c>
       <c r="C73" s="9">
-        <v>37369039465</v>
+        <v>37379117788</v>
       </c>
       <c r="D73" s="23">
         <v>55</v>
@@ -3913,9 +4002,15 @@
       <c r="J73" s="24">
         <v>55</v>
       </c>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="25"/>
+      <c r="K73" s="24">
+        <v>55</v>
+      </c>
+      <c r="L73" s="23">
+        <v>55</v>
+      </c>
+      <c r="M73" s="23">
+        <v>55</v>
+      </c>
       <c r="N73" s="25"/>
     </row>
     <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3926,7 +4021,7 @@
         <v>159</v>
       </c>
       <c r="C74" s="9">
-        <v>786602562</v>
+        <v>741228820</v>
       </c>
       <c r="D74" s="23">
         <v>155</v>
@@ -3934,20 +4029,26 @@
       <c r="E74" s="24">
         <v>155</v>
       </c>
-      <c r="F74" s="26"/>
+      <c r="F74" s="24">
+        <v>155</v>
+      </c>
       <c r="G74" s="24">
         <v>155</v>
       </c>
       <c r="H74" s="24">
         <v>155</v>
       </c>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="24">
-        <v>155</v>
-      </c>
-      <c r="M74" s="25"/>
+      <c r="I74" s="24">
+        <v>155</v>
+      </c>
+      <c r="J74" s="24">
+        <v>155</v>
+      </c>
+      <c r="K74" s="24">
+        <v>155</v>
+      </c>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
       <c r="N74" s="25"/>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3958,117 +4059,113 @@
         <v>161</v>
       </c>
       <c r="C75" s="9">
-        <v>37379117788</v>
+        <v>741178279</v>
       </c>
       <c r="D75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J75" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K75" s="24">
-        <v>55</v>
-      </c>
-      <c r="L75" s="24">
-        <v>55</v>
-      </c>
-      <c r="M75" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="L75" s="23">
+        <v>155</v>
+      </c>
+      <c r="M75" s="23">
+        <v>155</v>
+      </c>
       <c r="N75" s="25"/>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="9">
-        <v>741228820</v>
-      </c>
-      <c r="D76" s="23">
-        <v>155</v>
-      </c>
-      <c r="E76" s="24">
-        <v>155</v>
-      </c>
-      <c r="F76" s="24">
-        <v>155</v>
-      </c>
-      <c r="G76" s="24">
-        <v>155</v>
-      </c>
-      <c r="H76" s="24">
-        <v>155</v>
-      </c>
-      <c r="I76" s="24">
-        <v>155</v>
-      </c>
-      <c r="J76" s="24">
-        <v>155</v>
-      </c>
-      <c r="K76" s="24">
-        <v>155</v>
-      </c>
-      <c r="L76" s="25"/>
-      <c r="M76" s="25"/>
+      <c r="C76" s="19">
+        <v>748997484</v>
+      </c>
+      <c r="D76" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="28">
+        <v>155</v>
+      </c>
+      <c r="F76" s="28">
+        <v>155</v>
+      </c>
+      <c r="G76" s="28">
+        <v>155</v>
+      </c>
+      <c r="H76" s="28">
+        <v>155</v>
+      </c>
+      <c r="I76" s="28">
+        <v>155</v>
+      </c>
+      <c r="J76" s="28">
+        <v>155</v>
+      </c>
+      <c r="K76" s="28">
+        <v>155</v>
+      </c>
+      <c r="L76" s="27">
+        <v>155</v>
+      </c>
+      <c r="M76" s="27">
+        <v>155</v>
+      </c>
       <c r="N76" s="25"/>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C77" s="9">
-        <v>741178279</v>
-      </c>
-      <c r="D77" s="23">
-        <v>155</v>
-      </c>
-      <c r="E77" s="24">
-        <v>155</v>
-      </c>
-      <c r="F77" s="24">
-        <v>155</v>
-      </c>
-      <c r="G77" s="24">
-        <v>155</v>
-      </c>
-      <c r="H77" s="24">
-        <v>155</v>
-      </c>
-      <c r="I77" s="24">
-        <v>155</v>
-      </c>
-      <c r="J77" s="24">
-        <v>155</v>
-      </c>
-      <c r="K77" s="24">
-        <v>155</v>
-      </c>
-      <c r="L77" s="24">
-        <v>155</v>
-      </c>
-      <c r="M77" s="25"/>
+      <c r="C77" s="19">
+        <v>726862381</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F77" s="28">
+        <v>80</v>
+      </c>
+      <c r="G77" s="28">
+        <v>80</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
       <c r="N77" s="25"/>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="18" t="s">
         <v>166</v>
       </c>
@@ -4076,16 +4173,16 @@
         <v>167</v>
       </c>
       <c r="C78" s="19">
-        <v>748997484</v>
+        <v>729973839</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" s="28">
-        <v>155</v>
-      </c>
-      <c r="F78" s="28">
-        <v>155</v>
+        <v>169</v>
+      </c>
+      <c r="E78" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>169</v>
       </c>
       <c r="G78" s="28">
         <v>155</v>
@@ -4102,34 +4199,24 @@
       <c r="K78" s="28">
         <v>155</v>
       </c>
-      <c r="L78" s="28">
-        <v>155</v>
-      </c>
-      <c r="M78" s="25"/>
-      <c r="N78" s="25"/>
-    </row>
-    <row r="79" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="19">
-        <v>726862381</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="28">
-        <v>80</v>
-      </c>
-      <c r="G79" s="28">
-        <v>80</v>
-      </c>
+      <c r="L78" s="27">
+        <v>155</v>
+      </c>
+      <c r="M78" s="27">
+        <v>155</v>
+      </c>
+      <c r="N78" s="28">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="18"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
@@ -4138,58 +4225,30 @@
       <c r="M79" s="25"/>
       <c r="N79" s="25"/>
     </row>
-    <row r="80" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="B80" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="19">
-        <v>729973839</v>
-      </c>
-      <c r="D80" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="F80" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="G80" s="28">
-        <v>155</v>
-      </c>
-      <c r="H80" s="28">
-        <v>155</v>
-      </c>
-      <c r="I80" s="28">
-        <v>155</v>
-      </c>
-      <c r="J80" s="28">
-        <v>155</v>
-      </c>
-      <c r="K80" s="28">
-        <v>155</v>
-      </c>
-      <c r="L80" s="28">
-        <v>155</v>
-      </c>
-      <c r="M80" s="28">
-        <v>155</v>
-      </c>
-      <c r="N80" s="28">
-        <v>155</v>
-      </c>
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="18"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{02139262-017B-46A9-84A1-633E35703D75}"/>
-    <hyperlink ref="A56" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{BD9F4D47-92D2-45F2-BB60-6461DC709AEA}"/>
-    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{9B3B79D8-3DED-42A6-A644-757B430DEE4C}"/>
-    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{F8F8BB5C-96E4-4E4E-8AC1-F7D8451CF431}"/>
-    <hyperlink ref="A66" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{2A1D016F-8341-40FB-AF44-4DD19B7AAD76}"/>
+    <hyperlink ref="A29" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{2AE14E53-1885-4F26-B47B-0BE00BA7AE97}"/>
+    <hyperlink ref="A55" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{603467BD-917A-43CA-8DE6-41438F2F7265}"/>
+    <hyperlink ref="A57" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{F1683279-9F26-40D7-A2BA-1EF53558240D}"/>
+    <hyperlink ref="A61" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{034DBD7C-8556-417D-A1C5-922123783BB2}"/>
+    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{C5DE229F-FD8B-4B34-929D-AE01C73B143B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ABE939-0757-4D10-93FC-E6B97966F321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD6A2F-F888-47D8-9FC8-75E5A446CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="174">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>nu trebuie</t>
+  </si>
+  <si>
+    <t>danaiza2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>Georghiou Izabel</t>
+  </si>
+  <si>
+    <t>ocojocaru333@gmail.com</t>
+  </si>
+  <si>
+    <t>Cojocaru Olga</t>
   </si>
 </sst>
 </file>
@@ -593,7 +605,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,7 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -790,7 +808,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1076,9 +1103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1167,10 +1194,10 @@
       <c r="K2" s="14">
         <v>155</v>
       </c>
-      <c r="L2" s="13">
-        <v>155</v>
-      </c>
-      <c r="M2" s="13">
+      <c r="L2" s="14">
+        <v>155</v>
+      </c>
+      <c r="M2" s="31">
         <v>155</v>
       </c>
       <c r="N2" s="15"/>
@@ -1209,10 +1236,10 @@
       <c r="K3" s="24">
         <v>155</v>
       </c>
-      <c r="L3" s="23">
-        <v>155</v>
-      </c>
-      <c r="M3" s="23">
+      <c r="L3" s="24">
+        <v>155</v>
+      </c>
+      <c r="M3" s="32">
         <v>155</v>
       </c>
       <c r="N3" s="25"/>
@@ -1251,10 +1278,10 @@
       <c r="K4" s="24">
         <v>155</v>
       </c>
-      <c r="L4" s="23">
-        <v>155</v>
-      </c>
-      <c r="M4" s="23">
+      <c r="L4" s="24">
+        <v>155</v>
+      </c>
+      <c r="M4" s="32">
         <v>155</v>
       </c>
       <c r="N4" s="25"/>
@@ -1291,8 +1318,8 @@
         <v>155</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="33"/>
       <c r="N5" s="25"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1329,10 +1356,10 @@
       <c r="K6" s="24">
         <v>155</v>
       </c>
-      <c r="L6" s="23">
-        <v>155</v>
-      </c>
-      <c r="M6" s="23">
+      <c r="L6" s="24">
+        <v>155</v>
+      </c>
+      <c r="M6" s="32">
         <v>155</v>
       </c>
       <c r="N6" s="24" t="s">
@@ -1373,12 +1400,10 @@
       <c r="K7" s="24">
         <v>155</v>
       </c>
-      <c r="L7" s="23">
-        <v>155</v>
-      </c>
-      <c r="M7" s="23">
-        <v>155</v>
-      </c>
+      <c r="L7" s="24">
+        <v>155</v>
+      </c>
+      <c r="M7" s="33"/>
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1415,12 +1440,10 @@
       <c r="K8" s="24">
         <v>155</v>
       </c>
-      <c r="L8" s="23">
-        <v>155</v>
-      </c>
-      <c r="M8" s="23">
-        <v>155</v>
-      </c>
+      <c r="L8" s="24">
+        <v>155</v>
+      </c>
+      <c r="M8" s="33"/>
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1457,10 +1480,10 @@
       <c r="K9" s="24">
         <v>155</v>
       </c>
-      <c r="L9" s="23">
-        <v>155</v>
-      </c>
-      <c r="M9" s="23">
+      <c r="L9" s="24">
+        <v>155</v>
+      </c>
+      <c r="M9" s="32">
         <v>155</v>
       </c>
       <c r="N9" s="24" t="s">
@@ -1501,8 +1524,8 @@
       <c r="K10" s="24">
         <v>155</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1539,10 +1562,10 @@
       <c r="K11" s="24">
         <v>155</v>
       </c>
-      <c r="L11" s="23">
-        <v>155</v>
-      </c>
-      <c r="M11" s="23">
+      <c r="L11" s="24">
+        <v>155</v>
+      </c>
+      <c r="M11" s="32">
         <v>155</v>
       </c>
       <c r="N11" s="25"/>
@@ -1575,8 +1598,8 @@
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="33"/>
       <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1613,10 +1636,10 @@
       <c r="K13" s="24">
         <v>155</v>
       </c>
-      <c r="L13" s="23">
-        <v>155</v>
-      </c>
-      <c r="M13" s="23">
+      <c r="L13" s="24">
+        <v>155</v>
+      </c>
+      <c r="M13" s="32">
         <v>155</v>
       </c>
       <c r="N13" s="25"/>
@@ -1655,12 +1678,10 @@
       <c r="K14" s="24">
         <v>155</v>
       </c>
-      <c r="L14" s="23">
-        <v>155</v>
-      </c>
-      <c r="M14" s="23">
-        <v>155</v>
-      </c>
+      <c r="L14" s="24">
+        <v>155</v>
+      </c>
+      <c r="M14" s="33"/>
       <c r="N14" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1697,10 +1718,10 @@
       <c r="K15" s="24">
         <v>155</v>
       </c>
-      <c r="L15" s="23">
-        <v>155</v>
-      </c>
-      <c r="M15" s="23">
+      <c r="L15" s="24">
+        <v>155</v>
+      </c>
+      <c r="M15" s="32">
         <v>155</v>
       </c>
       <c r="N15" s="25"/>
@@ -1739,10 +1760,10 @@
       <c r="K16" s="24">
         <v>155</v>
       </c>
-      <c r="L16" s="23">
-        <v>155</v>
-      </c>
-      <c r="M16" s="23">
+      <c r="L16" s="24">
+        <v>155</v>
+      </c>
+      <c r="M16" s="32">
         <v>155</v>
       </c>
       <c r="N16" s="24" t="s">
@@ -1783,12 +1804,10 @@
       <c r="K17" s="24">
         <v>155</v>
       </c>
-      <c r="L17" s="23">
-        <v>155</v>
-      </c>
-      <c r="M17" s="23">
-        <v>155</v>
-      </c>
+      <c r="L17" s="24">
+        <v>155</v>
+      </c>
+      <c r="M17" s="33"/>
       <c r="N17" s="25"/>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1825,12 +1844,10 @@
       <c r="K18" s="24">
         <v>155</v>
       </c>
-      <c r="L18" s="23">
-        <v>155</v>
-      </c>
-      <c r="M18" s="23">
-        <v>155</v>
-      </c>
+      <c r="L18" s="24">
+        <v>155</v>
+      </c>
+      <c r="M18" s="33"/>
       <c r="N18" s="25"/>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1861,12 +1878,10 @@
       <c r="K19" s="24">
         <v>135</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="24">
         <v>135</v>
       </c>
-      <c r="M19" s="23">
-        <v>135</v>
-      </c>
+      <c r="M19" s="33"/>
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1903,10 +1918,10 @@
       <c r="K20" s="24">
         <v>155</v>
       </c>
-      <c r="L20" s="23">
-        <v>155</v>
-      </c>
-      <c r="M20" s="23">
+      <c r="L20" s="24">
+        <v>155</v>
+      </c>
+      <c r="M20" s="32">
         <v>155</v>
       </c>
       <c r="N20" s="24">
@@ -1947,12 +1962,10 @@
       <c r="K21" s="24">
         <v>155</v>
       </c>
-      <c r="L21" s="23">
-        <v>155</v>
-      </c>
-      <c r="M21" s="23">
-        <v>155</v>
-      </c>
+      <c r="L21" s="24">
+        <v>155</v>
+      </c>
+      <c r="M21" s="33"/>
       <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1989,10 +2002,10 @@
       <c r="K22" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="34" t="s">
         <v>168</v>
       </c>
       <c r="N22" s="28" t="s">
@@ -2033,10 +2046,10 @@
       <c r="K23" s="24">
         <v>155</v>
       </c>
-      <c r="L23" s="23">
-        <v>155</v>
-      </c>
-      <c r="M23" s="23">
+      <c r="L23" s="24">
+        <v>155</v>
+      </c>
+      <c r="M23" s="32">
         <v>155</v>
       </c>
       <c r="N23" s="25"/>
@@ -2075,10 +2088,10 @@
       <c r="K24" s="24">
         <v>155</v>
       </c>
-      <c r="L24" s="23">
-        <v>155</v>
-      </c>
-      <c r="M24" s="23">
+      <c r="L24" s="24">
+        <v>155</v>
+      </c>
+      <c r="M24" s="32">
         <v>155</v>
       </c>
       <c r="N24" s="24" t="s">
@@ -2119,10 +2132,10 @@
       <c r="K25" s="24">
         <v>155</v>
       </c>
-      <c r="L25" s="23">
-        <v>155</v>
-      </c>
-      <c r="M25" s="23">
+      <c r="L25" s="24">
+        <v>155</v>
+      </c>
+      <c r="M25" s="32">
         <v>155</v>
       </c>
       <c r="N25" s="25"/>
@@ -2161,12 +2174,10 @@
       <c r="K26" s="30">
         <v>155</v>
       </c>
-      <c r="L26" s="31">
-        <v>155</v>
-      </c>
-      <c r="M26" s="31">
-        <v>155</v>
-      </c>
+      <c r="L26" s="30">
+        <v>155</v>
+      </c>
+      <c r="M26" s="33"/>
       <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2203,108 +2214,102 @@
       <c r="K27" s="24">
         <v>155</v>
       </c>
-      <c r="L27" s="23">
-        <v>155</v>
-      </c>
-      <c r="M27" s="23">
-        <v>155</v>
-      </c>
+      <c r="L27" s="24">
+        <v>155</v>
+      </c>
+      <c r="M27" s="33"/>
       <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="9">
+        <v>764888445</v>
+      </c>
+      <c r="D28" s="23">
+        <v>155</v>
+      </c>
+      <c r="E28" s="24">
+        <v>155</v>
+      </c>
+      <c r="F28" s="24">
+        <v>155</v>
+      </c>
+      <c r="G28" s="24">
+        <v>155</v>
+      </c>
+      <c r="H28" s="24">
+        <v>155</v>
+      </c>
+      <c r="I28" s="24">
+        <v>155</v>
+      </c>
+      <c r="J28" s="24">
+        <v>155</v>
+      </c>
+      <c r="K28" s="24">
+        <v>155</v>
+      </c>
+      <c r="L28" s="24">
+        <v>155</v>
+      </c>
+      <c r="M28" s="33"/>
+      <c r="N28" s="25"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>755931135</v>
       </c>
-      <c r="D28" s="23">
-        <v>155</v>
-      </c>
-      <c r="E28" s="24">
-        <v>155</v>
-      </c>
-      <c r="F28" s="24">
-        <v>155</v>
-      </c>
-      <c r="G28" s="24">
-        <v>155</v>
-      </c>
-      <c r="H28" s="24">
-        <v>155</v>
-      </c>
-      <c r="I28" s="24">
-        <v>155</v>
-      </c>
-      <c r="J28" s="24">
-        <v>155</v>
-      </c>
-      <c r="K28" s="24">
-        <v>155</v>
-      </c>
-      <c r="L28" s="23">
-        <v>155</v>
-      </c>
-      <c r="M28" s="23">
-        <v>155</v>
-      </c>
-      <c r="N28" s="25"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="20" t="s">
+      <c r="D29" s="23">
+        <v>155</v>
+      </c>
+      <c r="E29" s="24">
+        <v>155</v>
+      </c>
+      <c r="F29" s="24">
+        <v>155</v>
+      </c>
+      <c r="G29" s="24">
+        <v>155</v>
+      </c>
+      <c r="H29" s="24">
+        <v>155</v>
+      </c>
+      <c r="I29" s="24">
+        <v>155</v>
+      </c>
+      <c r="J29" s="24">
+        <v>155</v>
+      </c>
+      <c r="K29" s="24">
+        <v>155</v>
+      </c>
+      <c r="L29" s="24">
+        <v>155</v>
+      </c>
+      <c r="M29" s="33"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>33782781442</v>
       </c>
-      <c r="D29" s="23">
-        <v>155</v>
-      </c>
-      <c r="E29" s="24">
-        <v>155</v>
-      </c>
-      <c r="F29" s="24">
-        <v>155</v>
-      </c>
-      <c r="G29" s="24">
-        <v>155</v>
-      </c>
-      <c r="H29" s="24">
-        <v>155</v>
-      </c>
-      <c r="I29" s="24">
-        <v>155</v>
-      </c>
-      <c r="J29" s="24">
-        <v>155</v>
-      </c>
-      <c r="K29" s="24">
-        <v>155</v>
-      </c>
-      <c r="L29" s="23">
-        <v>155</v>
-      </c>
-      <c r="M29" s="23">
-        <v>155</v>
-      </c>
-      <c r="N29" s="25"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="9">
-        <v>730913443</v>
-      </c>
       <c r="D30" s="23">
         <v>155</v>
       </c>
@@ -2329,23 +2334,21 @@
       <c r="K30" s="24">
         <v>155</v>
       </c>
-      <c r="L30" s="23">
-        <v>155</v>
-      </c>
-      <c r="M30" s="23">
-        <v>155</v>
-      </c>
+      <c r="L30" s="24">
+        <v>155</v>
+      </c>
+      <c r="M30" s="33"/>
       <c r="N30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="9">
-        <v>751709016</v>
+        <v>730913443</v>
       </c>
       <c r="D31" s="23">
         <v>155</v>
@@ -2371,23 +2374,23 @@
       <c r="K31" s="24">
         <v>155</v>
       </c>
-      <c r="L31" s="23">
-        <v>155</v>
-      </c>
-      <c r="M31" s="23">
+      <c r="L31" s="24">
+        <v>155</v>
+      </c>
+      <c r="M31" s="32">
         <v>155</v>
       </c>
       <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="9">
-        <v>773787056</v>
+        <v>751709016</v>
       </c>
       <c r="D32" s="23">
         <v>155</v>
@@ -2413,25 +2416,21 @@
       <c r="K32" s="24">
         <v>155</v>
       </c>
-      <c r="L32" s="23">
-        <v>155</v>
-      </c>
-      <c r="M32" s="23">
-        <v>155</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="L32" s="24">
+        <v>155</v>
+      </c>
+      <c r="M32" s="33"/>
+      <c r="N32" s="25"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="9">
-        <v>749020388</v>
+        <v>773787056</v>
       </c>
       <c r="D33" s="23">
         <v>155</v>
@@ -2457,23 +2456,25 @@
       <c r="K33" s="24">
         <v>155</v>
       </c>
-      <c r="L33" s="23">
-        <v>155</v>
-      </c>
-      <c r="M33" s="23">
-        <v>155</v>
-      </c>
-      <c r="N33" s="25"/>
+      <c r="L33" s="24">
+        <v>155</v>
+      </c>
+      <c r="M33" s="32">
+        <v>155</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9">
-        <v>743229325</v>
+        <v>749020388</v>
       </c>
       <c r="D34" s="23">
         <v>155</v>
@@ -2499,25 +2500,21 @@
       <c r="K34" s="24">
         <v>155</v>
       </c>
-      <c r="L34" s="23">
-        <v>155</v>
-      </c>
-      <c r="M34" s="23">
-        <v>155</v>
-      </c>
-      <c r="N34" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="L34" s="24">
+        <v>155</v>
+      </c>
+      <c r="M34" s="33"/>
+      <c r="N34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="C35" s="9">
-        <v>724560970</v>
+        <v>743229325</v>
       </c>
       <c r="D35" s="23">
         <v>155</v>
@@ -2543,23 +2540,25 @@
       <c r="K35" s="24">
         <v>155</v>
       </c>
-      <c r="L35" s="23">
-        <v>155</v>
-      </c>
-      <c r="M35" s="23">
-        <v>155</v>
-      </c>
-      <c r="N35" s="25"/>
+      <c r="L35" s="24">
+        <v>155</v>
+      </c>
+      <c r="M35" s="32">
+        <v>155</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="C36" s="9">
-        <v>751343396</v>
+        <v>724560970</v>
       </c>
       <c r="D36" s="23">
         <v>155</v>
@@ -2585,23 +2584,23 @@
       <c r="K36" s="24">
         <v>155</v>
       </c>
-      <c r="L36" s="23">
-        <v>155</v>
-      </c>
-      <c r="M36" s="23">
+      <c r="L36" s="24">
+        <v>155</v>
+      </c>
+      <c r="M36" s="32">
         <v>155</v>
       </c>
       <c r="N36" s="25"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" s="9">
-        <v>747601279</v>
+        <v>751343396</v>
       </c>
       <c r="D37" s="23">
         <v>155</v>
@@ -2627,23 +2626,23 @@
       <c r="K37" s="24">
         <v>155</v>
       </c>
-      <c r="L37" s="23">
-        <v>155</v>
-      </c>
-      <c r="M37" s="23">
+      <c r="L37" s="24">
+        <v>155</v>
+      </c>
+      <c r="M37" s="32">
         <v>155</v>
       </c>
       <c r="N37" s="25"/>
     </row>
     <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C38" s="9">
-        <v>743241140</v>
+        <v>747601279</v>
       </c>
       <c r="D38" s="23">
         <v>155</v>
@@ -2669,23 +2668,21 @@
       <c r="K38" s="24">
         <v>155</v>
       </c>
-      <c r="L38" s="23">
-        <v>155</v>
-      </c>
-      <c r="M38" s="23">
-        <v>155</v>
-      </c>
+      <c r="L38" s="24">
+        <v>155</v>
+      </c>
+      <c r="M38" s="33"/>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="9">
-        <v>732009826</v>
+        <v>743241140</v>
       </c>
       <c r="D39" s="23">
         <v>155</v>
@@ -2711,23 +2708,21 @@
       <c r="K39" s="24">
         <v>155</v>
       </c>
-      <c r="L39" s="23">
-        <v>155</v>
-      </c>
-      <c r="M39" s="23">
-        <v>155</v>
-      </c>
+      <c r="L39" s="24">
+        <v>155</v>
+      </c>
+      <c r="M39" s="33"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="9">
-        <v>730504732</v>
+        <v>732009826</v>
       </c>
       <c r="D40" s="23">
         <v>155</v>
@@ -2753,25 +2748,21 @@
       <c r="K40" s="24">
         <v>155</v>
       </c>
-      <c r="L40" s="23">
-        <v>155</v>
-      </c>
-      <c r="M40" s="23">
-        <v>155</v>
-      </c>
-      <c r="N40" s="24">
-        <v>155</v>
-      </c>
+      <c r="L40" s="24">
+        <v>155</v>
+      </c>
+      <c r="M40" s="33"/>
+      <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="9">
-        <v>771756831</v>
+        <v>730504732</v>
       </c>
       <c r="D41" s="23">
         <v>155</v>
@@ -2797,23 +2788,25 @@
       <c r="K41" s="24">
         <v>155</v>
       </c>
-      <c r="L41" s="23">
-        <v>155</v>
-      </c>
-      <c r="M41" s="23">
-        <v>155</v>
-      </c>
-      <c r="N41" s="25"/>
+      <c r="L41" s="24">
+        <v>155</v>
+      </c>
+      <c r="M41" s="32">
+        <v>155</v>
+      </c>
+      <c r="N41" s="24">
+        <v>155</v>
+      </c>
     </row>
     <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="9">
-        <v>748883235</v>
+        <v>771756831</v>
       </c>
       <c r="D42" s="23">
         <v>155</v>
@@ -2839,101 +2832,99 @@
       <c r="K42" s="24">
         <v>155</v>
       </c>
-      <c r="L42" s="23">
-        <v>155</v>
-      </c>
-      <c r="M42" s="23">
+      <c r="L42" s="24">
+        <v>155</v>
+      </c>
+      <c r="M42" s="32">
         <v>155</v>
       </c>
       <c r="N42" s="25"/>
     </row>
     <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C43" s="9">
-        <v>771143821</v>
+        <v>748883235</v>
       </c>
       <c r="D43" s="23">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="E43" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F43" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="G43" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="H43" s="24">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="I43" s="24">
-        <v>80</v>
-      </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+        <v>155</v>
+      </c>
+      <c r="J43" s="24">
+        <v>155</v>
+      </c>
+      <c r="K43" s="24">
+        <v>155</v>
+      </c>
+      <c r="L43" s="24">
+        <v>155</v>
+      </c>
+      <c r="M43" s="32">
+        <v>155</v>
+      </c>
       <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="9">
-        <v>742201134</v>
+        <v>771143821</v>
       </c>
       <c r="D44" s="23">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="E44" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="F44" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="G44" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="H44" s="24">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="I44" s="24">
-        <v>155</v>
-      </c>
-      <c r="J44" s="24">
-        <v>155</v>
-      </c>
-      <c r="K44" s="24">
-        <v>155</v>
-      </c>
-      <c r="L44" s="23">
-        <v>155</v>
-      </c>
-      <c r="M44" s="23">
-        <v>155</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>168</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="25"/>
     </row>
     <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C45" s="9">
-        <v>731453375</v>
+        <v>742201134</v>
       </c>
       <c r="D45" s="23">
         <v>155</v>
@@ -2959,23 +2950,25 @@
       <c r="K45" s="24">
         <v>155</v>
       </c>
-      <c r="L45" s="23">
-        <v>155</v>
-      </c>
-      <c r="M45" s="23">
-        <v>155</v>
-      </c>
-      <c r="N45" s="25"/>
+      <c r="L45" s="24">
+        <v>155</v>
+      </c>
+      <c r="M45" s="32">
+        <v>155</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C46" s="9">
-        <v>41793609481</v>
+        <v>731453375</v>
       </c>
       <c r="D46" s="23">
         <v>155</v>
@@ -3001,87 +2994,85 @@
       <c r="K46" s="24">
         <v>155</v>
       </c>
-      <c r="L46" s="23">
-        <v>155</v>
-      </c>
-      <c r="M46" s="23">
+      <c r="L46" s="24">
+        <v>155</v>
+      </c>
+      <c r="M46" s="32">
         <v>155</v>
       </c>
       <c r="N46" s="25"/>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" s="9">
-        <v>34666220586</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
+        <v>41793609481</v>
+      </c>
+      <c r="D47" s="23">
+        <v>155</v>
+      </c>
+      <c r="E47" s="24">
+        <v>155</v>
+      </c>
+      <c r="F47" s="24">
+        <v>155</v>
+      </c>
+      <c r="G47" s="24">
+        <v>155</v>
+      </c>
+      <c r="H47" s="24">
+        <v>155</v>
+      </c>
+      <c r="I47" s="24">
+        <v>155</v>
+      </c>
+      <c r="J47" s="24">
+        <v>155</v>
+      </c>
+      <c r="K47" s="24">
+        <v>155</v>
+      </c>
+      <c r="L47" s="24">
+        <v>155</v>
+      </c>
+      <c r="M47" s="33"/>
       <c r="N47" s="25"/>
     </row>
     <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C48" s="9">
-        <v>723385958</v>
-      </c>
-      <c r="D48" s="23">
-        <v>155</v>
-      </c>
-      <c r="E48" s="24">
-        <v>155</v>
-      </c>
-      <c r="F48" s="24">
-        <v>155</v>
-      </c>
-      <c r="G48" s="24">
-        <v>155</v>
-      </c>
-      <c r="H48" s="24">
-        <v>155</v>
-      </c>
-      <c r="I48" s="24">
-        <v>155</v>
-      </c>
-      <c r="J48" s="24">
-        <v>155</v>
-      </c>
-      <c r="K48" s="24">
-        <v>155</v>
-      </c>
-      <c r="L48" s="23">
-        <v>155</v>
-      </c>
-      <c r="M48" s="23">
-        <v>155</v>
-      </c>
+        <v>34666220586</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="25"/>
     </row>
     <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C49" s="9">
-        <v>744112116</v>
+        <v>723385958</v>
       </c>
       <c r="D49" s="23">
         <v>155</v>
@@ -3107,25 +3098,21 @@
       <c r="K49" s="24">
         <v>155</v>
       </c>
-      <c r="L49" s="23">
-        <v>155</v>
-      </c>
-      <c r="M49" s="23">
-        <v>155</v>
-      </c>
-      <c r="N49" s="24" t="s">
-        <v>168</v>
-      </c>
+      <c r="L49" s="24">
+        <v>155</v>
+      </c>
+      <c r="M49" s="33"/>
+      <c r="N49" s="25"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C50" s="9">
-        <v>720049170</v>
+        <v>744112116</v>
       </c>
       <c r="D50" s="23">
         <v>155</v>
@@ -3151,180 +3138,162 @@
       <c r="K50" s="24">
         <v>155</v>
       </c>
-      <c r="L50" s="23">
-        <v>155</v>
-      </c>
-      <c r="M50" s="23">
-        <v>155</v>
-      </c>
-      <c r="N50" s="24">
-        <v>155</v>
+      <c r="L50" s="24">
+        <v>155</v>
+      </c>
+      <c r="M50" s="32">
+        <v>155</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="9">
+        <v>720049170</v>
+      </c>
+      <c r="D51" s="23">
+        <v>155</v>
+      </c>
+      <c r="E51" s="24">
+        <v>155</v>
+      </c>
+      <c r="F51" s="24">
+        <v>155</v>
+      </c>
+      <c r="G51" s="24">
+        <v>155</v>
+      </c>
+      <c r="H51" s="24">
+        <v>155</v>
+      </c>
+      <c r="I51" s="24">
+        <v>155</v>
+      </c>
+      <c r="J51" s="24">
+        <v>155</v>
+      </c>
+      <c r="K51" s="24">
+        <v>155</v>
+      </c>
+      <c r="L51" s="24">
+        <v>155</v>
+      </c>
+      <c r="M51" s="32">
+        <v>155</v>
+      </c>
+      <c r="N51" s="24">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C52" s="9">
         <v>410779995351</v>
       </c>
-      <c r="D51" s="23">
-        <v>155</v>
-      </c>
-      <c r="E51" s="24">
-        <v>155</v>
-      </c>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="25"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="18" t="s">
+      <c r="D52" s="23">
+        <v>155</v>
+      </c>
+      <c r="E52" s="24">
+        <v>155</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="25"/>
+    </row>
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B53" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C53" s="19">
         <v>7796402501</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D53" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="28" t="s">
+      <c r="E53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="K53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="L52" s="27" t="s">
+      <c r="L53" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="M52" s="27" t="s">
+      <c r="M53" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="N52" s="28" t="s">
+      <c r="N53" s="28" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="8" t="s">
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" s="19">
+        <v>37369208608</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C55" s="9">
         <v>757678280</v>
       </c>
-      <c r="D53" s="23">
-        <v>155</v>
-      </c>
-      <c r="E53" s="24">
-        <v>155</v>
-      </c>
-      <c r="F53" s="24">
-        <v>155</v>
-      </c>
-      <c r="G53" s="24">
-        <v>155</v>
-      </c>
-      <c r="H53" s="24">
-        <v>155</v>
-      </c>
-      <c r="I53" s="24">
-        <v>155</v>
-      </c>
-      <c r="J53" s="24">
-        <v>155</v>
-      </c>
-      <c r="K53" s="24">
-        <v>155</v>
-      </c>
-      <c r="L53" s="23">
-        <v>155</v>
-      </c>
-      <c r="M53" s="23">
-        <v>155</v>
-      </c>
-      <c r="N53" s="25"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" s="9">
-        <v>744705023</v>
-      </c>
-      <c r="D54" s="23">
-        <v>155</v>
-      </c>
-      <c r="E54" s="24">
-        <v>155</v>
-      </c>
-      <c r="F54" s="24">
-        <v>155</v>
-      </c>
-      <c r="G54" s="24">
-        <v>155</v>
-      </c>
-      <c r="H54" s="24">
-        <v>155</v>
-      </c>
-      <c r="I54" s="24">
-        <v>155</v>
-      </c>
-      <c r="J54" s="24">
-        <v>155</v>
-      </c>
-      <c r="K54" s="24">
-        <v>155</v>
-      </c>
-      <c r="L54" s="23">
-        <v>155</v>
-      </c>
-      <c r="M54" s="23">
-        <v>155</v>
-      </c>
-      <c r="N54" s="25"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="9">
-        <v>724385533</v>
-      </c>
       <c r="D55" s="23">
         <v>155</v>
       </c>
@@ -3334,46 +3303,80 @@
       <c r="F55" s="24">
         <v>155</v>
       </c>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
+      <c r="G55" s="24">
+        <v>155</v>
+      </c>
+      <c r="H55" s="24">
+        <v>155</v>
+      </c>
+      <c r="I55" s="24">
+        <v>155</v>
+      </c>
+      <c r="J55" s="24">
+        <v>155</v>
+      </c>
+      <c r="K55" s="24">
+        <v>155</v>
+      </c>
+      <c r="L55" s="24">
+        <v>155</v>
+      </c>
+      <c r="M55" s="32">
+        <v>155</v>
+      </c>
       <c r="N55" s="25"/>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C56" s="9">
-        <v>722283194</v>
-      </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
+        <v>744705023</v>
+      </c>
+      <c r="D56" s="23">
+        <v>155</v>
+      </c>
+      <c r="E56" s="24">
+        <v>155</v>
+      </c>
+      <c r="F56" s="24">
+        <v>155</v>
+      </c>
+      <c r="G56" s="24">
+        <v>155</v>
+      </c>
+      <c r="H56" s="24">
+        <v>155</v>
+      </c>
+      <c r="I56" s="24">
+        <v>155</v>
+      </c>
+      <c r="J56" s="24">
+        <v>155</v>
+      </c>
+      <c r="K56" s="24">
+        <v>155</v>
+      </c>
+      <c r="L56" s="24">
+        <v>155</v>
+      </c>
+      <c r="M56" s="32">
+        <v>155</v>
+      </c>
       <c r="N56" s="25"/>
     </row>
     <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C57" s="9">
-        <v>742083396</v>
+        <v>724385533</v>
       </c>
       <c r="D57" s="23">
         <v>155</v>
@@ -3384,70 +3387,46 @@
       <c r="F57" s="24">
         <v>155</v>
       </c>
-      <c r="G57" s="24">
-        <v>155</v>
-      </c>
-      <c r="H57" s="30">
-        <v>130</v>
-      </c>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="25"/>
     </row>
     <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C58" s="9">
-        <v>751700208</v>
-      </c>
-      <c r="D58" s="23">
-        <v>155</v>
-      </c>
-      <c r="E58" s="24">
-        <v>155</v>
-      </c>
-      <c r="F58" s="24">
-        <v>155</v>
-      </c>
-      <c r="G58" s="24">
-        <v>155</v>
-      </c>
-      <c r="H58" s="24">
-        <v>155</v>
-      </c>
-      <c r="I58" s="24">
-        <v>155</v>
-      </c>
-      <c r="J58" s="24">
-        <v>155</v>
-      </c>
-      <c r="K58" s="24">
-        <v>155</v>
-      </c>
-      <c r="L58" s="23">
-        <v>155</v>
-      </c>
-      <c r="M58" s="23">
-        <v>155</v>
-      </c>
+        <v>722283194</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="25"/>
     </row>
     <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="8" t="s">
-        <v>128</v>
+      <c r="A59" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C59" s="9">
-        <v>740759994</v>
+        <v>742083396</v>
       </c>
       <c r="D59" s="23">
         <v>155</v>
@@ -3455,153 +3434,163 @@
       <c r="E59" s="24">
         <v>155</v>
       </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="F59" s="24">
+        <v>155</v>
+      </c>
+      <c r="G59" s="24">
+        <v>155</v>
+      </c>
+      <c r="H59" s="30">
+        <v>130</v>
+      </c>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="25"/>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="9">
+        <v>751700208</v>
+      </c>
+      <c r="D60" s="23">
+        <v>155</v>
+      </c>
+      <c r="E60" s="24">
+        <v>155</v>
+      </c>
+      <c r="F60" s="24">
+        <v>155</v>
+      </c>
+      <c r="G60" s="24">
+        <v>155</v>
+      </c>
+      <c r="H60" s="24">
+        <v>155</v>
+      </c>
+      <c r="I60" s="24">
+        <v>155</v>
+      </c>
+      <c r="J60" s="24">
+        <v>155</v>
+      </c>
+      <c r="K60" s="24">
+        <v>155</v>
+      </c>
+      <c r="L60" s="24">
+        <v>155</v>
+      </c>
+      <c r="M60" s="32">
+        <v>155</v>
+      </c>
+      <c r="N60" s="25"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="9">
+        <v>740759994</v>
+      </c>
+      <c r="D61" s="23">
+        <v>155</v>
+      </c>
+      <c r="E61" s="24">
+        <v>155</v>
+      </c>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="25"/>
+    </row>
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C62" s="10">
         <v>723191854</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="25"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="20" t="s">
+      <c r="D62" s="29"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="25"/>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C63" s="9">
         <v>726489020</v>
       </c>
-      <c r="D61" s="23">
-        <v>155</v>
-      </c>
-      <c r="E61" s="24">
-        <v>155</v>
-      </c>
-      <c r="F61" s="24">
-        <v>155</v>
-      </c>
-      <c r="G61" s="24">
-        <v>155</v>
-      </c>
-      <c r="H61" s="24">
-        <v>155</v>
-      </c>
-      <c r="I61" s="24">
-        <v>155</v>
-      </c>
-      <c r="J61" s="24">
-        <v>155</v>
-      </c>
-      <c r="K61" s="24">
-        <v>155</v>
-      </c>
-      <c r="L61" s="23">
-        <v>155</v>
-      </c>
-      <c r="M61" s="23">
-        <v>155</v>
-      </c>
-      <c r="N61" s="25"/>
-    </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="9">
-        <v>745525405</v>
-      </c>
-      <c r="D62" s="23">
-        <v>155</v>
-      </c>
-      <c r="E62" s="24">
-        <v>155</v>
-      </c>
-      <c r="F62" s="24">
-        <v>155</v>
-      </c>
-      <c r="G62" s="24">
-        <v>155</v>
-      </c>
-      <c r="H62" s="24">
-        <v>155</v>
-      </c>
-      <c r="I62" s="24">
-        <v>155</v>
-      </c>
-      <c r="J62" s="24">
-        <v>155</v>
-      </c>
-      <c r="K62" s="24">
-        <v>155</v>
-      </c>
-      <c r="L62" s="23">
-        <v>155</v>
-      </c>
-      <c r="M62" s="23">
-        <v>155</v>
-      </c>
-      <c r="N62" s="25"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" s="9">
-        <v>720878686</v>
-      </c>
-      <c r="D63" s="29"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
+      <c r="D63" s="23">
+        <v>155</v>
+      </c>
+      <c r="E63" s="24">
+        <v>155</v>
+      </c>
+      <c r="F63" s="24">
+        <v>155</v>
+      </c>
+      <c r="G63" s="24">
+        <v>155</v>
+      </c>
+      <c r="H63" s="24">
+        <v>155</v>
+      </c>
+      <c r="I63" s="24">
+        <v>155</v>
+      </c>
+      <c r="J63" s="24">
+        <v>155</v>
+      </c>
+      <c r="K63" s="24">
+        <v>155</v>
+      </c>
+      <c r="L63" s="24">
+        <v>155</v>
+      </c>
+      <c r="M63" s="32">
+        <v>155</v>
+      </c>
       <c r="N63" s="25"/>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C64" s="9">
-        <v>740074538</v>
+        <v>745525405</v>
       </c>
       <c r="D64" s="23">
         <v>155</v>
@@ -3627,151 +3616,127 @@
       <c r="K64" s="24">
         <v>155</v>
       </c>
-      <c r="L64" s="23">
-        <v>155</v>
-      </c>
-      <c r="M64" s="23">
-        <v>155</v>
-      </c>
+      <c r="L64" s="24">
+        <v>155</v>
+      </c>
+      <c r="M64" s="33"/>
       <c r="N64" s="25"/>
     </row>
     <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="20" t="s">
-        <v>140</v>
+      <c r="A65" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C65" s="9">
-        <v>31687728451</v>
-      </c>
-      <c r="D65" s="23">
-        <v>55</v>
-      </c>
-      <c r="E65" s="24">
-        <v>55</v>
-      </c>
-      <c r="F65" s="24">
-        <v>55</v>
-      </c>
-      <c r="G65" s="24">
-        <v>55</v>
-      </c>
-      <c r="H65" s="24">
-        <v>55</v>
-      </c>
-      <c r="I65" s="24">
-        <v>55</v>
-      </c>
-      <c r="J65" s="24">
-        <v>55</v>
-      </c>
-      <c r="K65" s="24">
-        <v>55</v>
-      </c>
-      <c r="L65" s="23">
-        <v>55</v>
-      </c>
-      <c r="M65" s="23">
-        <v>55</v>
-      </c>
+        <v>720878686</v>
+      </c>
+      <c r="D65" s="29"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="33"/>
       <c r="N65" s="25"/>
     </row>
     <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C66" s="9">
-        <v>373069265735</v>
+        <v>740074538</v>
       </c>
       <c r="D66" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J66" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K66" s="24">
-        <v>55</v>
-      </c>
-      <c r="L66" s="23">
-        <v>55</v>
-      </c>
-      <c r="M66" s="23">
-        <v>55</v>
+        <v>155</v>
+      </c>
+      <c r="L66" s="24">
+        <v>155</v>
+      </c>
+      <c r="M66" s="32">
+        <v>155</v>
       </c>
       <c r="N66" s="25"/>
     </row>
     <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8" t="s">
-        <v>144</v>
+      <c r="A67" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C67" s="9">
-        <v>740186024</v>
+        <v>31687728451</v>
       </c>
       <c r="D67" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J67" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K67" s="24">
-        <v>155</v>
-      </c>
-      <c r="L67" s="23">
-        <v>155</v>
-      </c>
-      <c r="M67" s="23">
-        <v>155</v>
-      </c>
-      <c r="N67" s="24">
-        <v>155</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="L67" s="24">
+        <v>55</v>
+      </c>
+      <c r="M67" s="32">
+        <v>55</v>
+      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C68" s="9">
-        <v>37379706120</v>
+        <v>373069265735</v>
       </c>
       <c r="D68" s="23">
         <v>55</v>
@@ -3797,69 +3762,65 @@
       <c r="K68" s="24">
         <v>55</v>
       </c>
-      <c r="L68" s="23">
-        <v>55</v>
-      </c>
-      <c r="M68" s="23">
-        <v>55</v>
-      </c>
-      <c r="N68" s="24">
-        <v>55</v>
-      </c>
+      <c r="L68" s="24">
+        <v>55</v>
+      </c>
+      <c r="M68" s="33"/>
+      <c r="N68" s="25"/>
     </row>
     <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C69" s="9">
-        <v>37361183234</v>
+        <v>740186024</v>
       </c>
       <c r="D69" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K69" s="24">
-        <v>55</v>
-      </c>
-      <c r="L69" s="23">
-        <v>55</v>
-      </c>
-      <c r="M69" s="23">
-        <v>55</v>
+        <v>155</v>
+      </c>
+      <c r="L69" s="24">
+        <v>155</v>
+      </c>
+      <c r="M69" s="32">
+        <v>155</v>
       </c>
       <c r="N69" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C70" s="9">
-        <v>37369815388</v>
+        <v>37379706120</v>
       </c>
       <c r="D70" s="23">
         <v>55</v>
@@ -3885,143 +3846,153 @@
       <c r="K70" s="24">
         <v>55</v>
       </c>
-      <c r="L70" s="23">
-        <v>55</v>
-      </c>
-      <c r="M70" s="23">
-        <v>55</v>
-      </c>
-      <c r="N70" s="25"/>
+      <c r="L70" s="24">
+        <v>55</v>
+      </c>
+      <c r="M70" s="32">
+        <v>55</v>
+      </c>
+      <c r="N70" s="24">
+        <v>55</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C71" s="9">
-        <v>358406402278</v>
+        <v>37361183234</v>
       </c>
       <c r="D71" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J71" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K71" s="24">
-        <v>155</v>
-      </c>
-      <c r="L71" s="23">
-        <v>155</v>
-      </c>
-      <c r="M71" s="23">
-        <v>155</v>
-      </c>
-      <c r="N71" s="24" t="s">
-        <v>168</v>
+        <v>55</v>
+      </c>
+      <c r="L71" s="24">
+        <v>55</v>
+      </c>
+      <c r="M71" s="32">
+        <v>55</v>
+      </c>
+      <c r="N71" s="24">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C72" s="9">
-        <v>786602562</v>
+        <v>37369815388</v>
       </c>
       <c r="D72" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E72" s="24">
-        <v>155</v>
-      </c>
-      <c r="F72" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="F72" s="24">
+        <v>55</v>
+      </c>
       <c r="G72" s="24">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H72" s="24">
-        <v>155</v>
-      </c>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="23">
-        <v>155</v>
-      </c>
-      <c r="M72" s="23">
-        <v>155</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I72" s="24">
+        <v>55</v>
+      </c>
+      <c r="J72" s="24">
+        <v>55</v>
+      </c>
+      <c r="K72" s="24">
+        <v>55</v>
+      </c>
+      <c r="L72" s="24">
+        <v>55</v>
+      </c>
+      <c r="M72" s="33"/>
       <c r="N72" s="25"/>
     </row>
     <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C73" s="9">
-        <v>37379117788</v>
+        <v>358406402278</v>
       </c>
       <c r="D73" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J73" s="24">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K73" s="24">
-        <v>55</v>
-      </c>
-      <c r="L73" s="23">
-        <v>55</v>
-      </c>
-      <c r="M73" s="23">
-        <v>55</v>
-      </c>
-      <c r="N73" s="25"/>
+        <v>155</v>
+      </c>
+      <c r="L73" s="24">
+        <v>155</v>
+      </c>
+      <c r="M73" s="32">
+        <v>155</v>
+      </c>
+      <c r="N73" s="24" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C74" s="9">
-        <v>741228820</v>
+        <v>786602562</v>
       </c>
       <c r="D74" s="23">
         <v>155</v>
@@ -4029,226 +4000,264 @@
       <c r="E74" s="24">
         <v>155</v>
       </c>
-      <c r="F74" s="24">
-        <v>155</v>
-      </c>
+      <c r="F74" s="26"/>
       <c r="G74" s="24">
         <v>155</v>
       </c>
       <c r="H74" s="24">
         <v>155</v>
       </c>
-      <c r="I74" s="24">
-        <v>155</v>
-      </c>
-      <c r="J74" s="24">
-        <v>155</v>
-      </c>
-      <c r="K74" s="24">
-        <v>155</v>
-      </c>
-      <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="24">
+        <v>155</v>
+      </c>
+      <c r="M74" s="33"/>
       <c r="N74" s="25"/>
     </row>
     <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="9">
+        <v>37379117788</v>
+      </c>
+      <c r="D75" s="23">
+        <v>55</v>
+      </c>
+      <c r="E75" s="24">
+        <v>55</v>
+      </c>
+      <c r="F75" s="24">
+        <v>55</v>
+      </c>
+      <c r="G75" s="24">
+        <v>55</v>
+      </c>
+      <c r="H75" s="24">
+        <v>55</v>
+      </c>
+      <c r="I75" s="24">
+        <v>55</v>
+      </c>
+      <c r="J75" s="24">
+        <v>55</v>
+      </c>
+      <c r="K75" s="24">
+        <v>55</v>
+      </c>
+      <c r="L75" s="24">
+        <v>55</v>
+      </c>
+      <c r="M75" s="32">
+        <v>55</v>
+      </c>
+      <c r="N75" s="25"/>
+    </row>
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="9">
+        <v>741228820</v>
+      </c>
+      <c r="D76" s="23">
+        <v>155</v>
+      </c>
+      <c r="E76" s="24">
+        <v>155</v>
+      </c>
+      <c r="F76" s="24">
+        <v>155</v>
+      </c>
+      <c r="G76" s="24">
+        <v>155</v>
+      </c>
+      <c r="H76" s="24">
+        <v>155</v>
+      </c>
+      <c r="I76" s="24">
+        <v>155</v>
+      </c>
+      <c r="J76" s="24">
+        <v>155</v>
+      </c>
+      <c r="K76" s="24">
+        <v>155</v>
+      </c>
+      <c r="L76" s="25"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="25"/>
+    </row>
+    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C77" s="9">
         <v>741178279</v>
       </c>
-      <c r="D75" s="23">
-        <v>155</v>
-      </c>
-      <c r="E75" s="24">
-        <v>155</v>
-      </c>
-      <c r="F75" s="24">
-        <v>155</v>
-      </c>
-      <c r="G75" s="24">
-        <v>155</v>
-      </c>
-      <c r="H75" s="24">
-        <v>155</v>
-      </c>
-      <c r="I75" s="24">
-        <v>155</v>
-      </c>
-      <c r="J75" s="24">
-        <v>155</v>
-      </c>
-      <c r="K75" s="24">
-        <v>155</v>
-      </c>
-      <c r="L75" s="23">
-        <v>155</v>
-      </c>
-      <c r="M75" s="23">
-        <v>155</v>
-      </c>
-      <c r="N75" s="25"/>
-    </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="18" t="s">
+      <c r="D77" s="23">
+        <v>155</v>
+      </c>
+      <c r="E77" s="24">
+        <v>155</v>
+      </c>
+      <c r="F77" s="24">
+        <v>155</v>
+      </c>
+      <c r="G77" s="24">
+        <v>155</v>
+      </c>
+      <c r="H77" s="24">
+        <v>155</v>
+      </c>
+      <c r="I77" s="24">
+        <v>155</v>
+      </c>
+      <c r="J77" s="24">
+        <v>155</v>
+      </c>
+      <c r="K77" s="24">
+        <v>155</v>
+      </c>
+      <c r="L77" s="24">
+        <v>155</v>
+      </c>
+      <c r="M77" s="33"/>
+      <c r="N77" s="25"/>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B78" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="19">
+      <c r="C78" s="19">
         <v>748997484</v>
-      </c>
-      <c r="D76" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="28">
-        <v>155</v>
-      </c>
-      <c r="F76" s="28">
-        <v>155</v>
-      </c>
-      <c r="G76" s="28">
-        <v>155</v>
-      </c>
-      <c r="H76" s="28">
-        <v>155</v>
-      </c>
-      <c r="I76" s="28">
-        <v>155</v>
-      </c>
-      <c r="J76" s="28">
-        <v>155</v>
-      </c>
-      <c r="K76" s="28">
-        <v>155</v>
-      </c>
-      <c r="L76" s="27">
-        <v>155</v>
-      </c>
-      <c r="M76" s="27">
-        <v>155</v>
-      </c>
-      <c r="N76" s="25"/>
-    </row>
-    <row r="77" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="19">
-        <v>726862381</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="F77" s="28">
-        <v>80</v>
-      </c>
-      <c r="G77" s="28">
-        <v>80</v>
-      </c>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="29"/>
-      <c r="N77" s="25"/>
-    </row>
-    <row r="78" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="19">
-        <v>729973839</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="28">
+        <v>155</v>
+      </c>
+      <c r="F78" s="28">
+        <v>155</v>
+      </c>
+      <c r="G78" s="28">
+        <v>155</v>
+      </c>
+      <c r="H78" s="28">
+        <v>155</v>
+      </c>
+      <c r="I78" s="28">
+        <v>155</v>
+      </c>
+      <c r="J78" s="28">
+        <v>155</v>
+      </c>
+      <c r="K78" s="28">
+        <v>155</v>
+      </c>
+      <c r="L78" s="28">
+        <v>155</v>
+      </c>
+      <c r="M78" s="33"/>
+      <c r="N78" s="25"/>
+    </row>
+    <row r="79" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="19">
+        <v>726862381</v>
+      </c>
+      <c r="D79" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="F78" s="28" t="s">
+      <c r="E79" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="G78" s="28">
-        <v>155</v>
-      </c>
-      <c r="H78" s="28">
-        <v>155</v>
-      </c>
-      <c r="I78" s="28">
-        <v>155</v>
-      </c>
-      <c r="J78" s="28">
-        <v>155</v>
-      </c>
-      <c r="K78" s="28">
-        <v>155</v>
-      </c>
-      <c r="L78" s="27">
-        <v>155</v>
-      </c>
-      <c r="M78" s="27">
-        <v>155</v>
-      </c>
-      <c r="N78" s="28">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
+      <c r="F79" s="28">
+        <v>80</v>
+      </c>
+      <c r="G79" s="28">
+        <v>80</v>
+      </c>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
       <c r="J79" s="25"/>
       <c r="K79" s="25"/>
       <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
+      <c r="M79" s="33"/>
       <c r="N79" s="25"/>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
+    <row r="80" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="19">
+        <v>729973839</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G80" s="28">
+        <v>155</v>
+      </c>
+      <c r="H80" s="28">
+        <v>155</v>
+      </c>
+      <c r="I80" s="28">
+        <v>155</v>
+      </c>
+      <c r="J80" s="28">
+        <v>155</v>
+      </c>
+      <c r="K80" s="28">
+        <v>155</v>
+      </c>
+      <c r="L80" s="28">
+        <v>155</v>
+      </c>
+      <c r="M80" s="34">
+        <v>155</v>
+      </c>
+      <c r="N80" s="28">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{2AE14E53-1885-4F26-B47B-0BE00BA7AE97}"/>
-    <hyperlink ref="A55" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{603467BD-917A-43CA-8DE6-41438F2F7265}"/>
-    <hyperlink ref="A57" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{F1683279-9F26-40D7-A2BA-1EF53558240D}"/>
-    <hyperlink ref="A61" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{034DBD7C-8556-417D-A1C5-922123783BB2}"/>
-    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{C5DE229F-FD8B-4B34-929D-AE01C73B143B}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{655976F5-71B5-40D8-AA15-048EC1E35088}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{7661EAEC-D115-4E84-AC26-798BA6392574}"/>
+    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{DB9BEF86-F4B9-4CB2-8AD1-8E0C33E3B6AD}"/>
+    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{830D50FB-31CE-471F-BD3C-A1285C37647C}"/>
+    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{0B000456-B551-4791-828E-0B18A3073EB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD6A2F-F888-47D8-9FC8-75E5A446CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66EDD89-BA06-4118-AC05-AAD2CC89217B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,9 +1103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1403,7 +1403,9 @@
       <c r="L7" s="24">
         <v>155</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="32">
+        <v>155</v>
+      </c>
       <c r="N7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1443,7 +1445,9 @@
       <c r="L8" s="24">
         <v>155</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="32">
+        <v>155</v>
+      </c>
       <c r="N8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1881,7 +1885,9 @@
       <c r="L19" s="24">
         <v>135</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="32">
+        <v>135</v>
+      </c>
       <c r="N19" s="25"/>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1965,7 +1971,9 @@
       <c r="L21" s="24">
         <v>155</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="32">
+        <v>155</v>
+      </c>
       <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2217,7 +2225,9 @@
       <c r="L27" s="24">
         <v>155</v>
       </c>
-      <c r="M27" s="33"/>
+      <c r="M27" s="32">
+        <v>155</v>
+      </c>
       <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2257,7 +2267,9 @@
       <c r="L28" s="24">
         <v>155</v>
       </c>
-      <c r="M28" s="33"/>
+      <c r="M28" s="32">
+        <v>155</v>
+      </c>
       <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2297,7 +2309,9 @@
       <c r="L29" s="24">
         <v>155</v>
       </c>
-      <c r="M29" s="33"/>
+      <c r="M29" s="32">
+        <v>155</v>
+      </c>
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2419,7 +2433,9 @@
       <c r="L32" s="24">
         <v>155</v>
       </c>
-      <c r="M32" s="33"/>
+      <c r="M32" s="32">
+        <v>155</v>
+      </c>
       <c r="N32" s="25"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2503,7 +2519,9 @@
       <c r="L34" s="24">
         <v>155</v>
       </c>
-      <c r="M34" s="33"/>
+      <c r="M34" s="32">
+        <v>155</v>
+      </c>
       <c r="N34" s="25"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2671,7 +2689,9 @@
       <c r="L38" s="24">
         <v>155</v>
       </c>
-      <c r="M38" s="33"/>
+      <c r="M38" s="32">
+        <v>155</v>
+      </c>
       <c r="N38" s="25"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2711,7 +2731,9 @@
       <c r="L39" s="24">
         <v>155</v>
       </c>
-      <c r="M39" s="33"/>
+      <c r="M39" s="32">
+        <v>155</v>
+      </c>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2751,7 +2773,9 @@
       <c r="L40" s="24">
         <v>155</v>
       </c>
-      <c r="M40" s="33"/>
+      <c r="M40" s="32">
+        <v>155</v>
+      </c>
       <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3101,7 +3125,9 @@
       <c r="L49" s="24">
         <v>155</v>
       </c>
-      <c r="M49" s="33"/>
+      <c r="M49" s="32">
+        <v>155</v>
+      </c>
       <c r="N49" s="25"/>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3208,10 +3234,18 @@
       <c r="E52" s="24">
         <v>155</v>
       </c>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
+      <c r="F52" s="24">
+        <v>155</v>
+      </c>
+      <c r="G52" s="24">
+        <v>155</v>
+      </c>
+      <c r="H52" s="24">
+        <v>155</v>
+      </c>
+      <c r="I52" s="24">
+        <v>85</v>
+      </c>
       <c r="J52" s="25"/>
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
@@ -3272,17 +3306,39 @@
       <c r="C54" s="19">
         <v>37369208608</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
+      <c r="D54" s="27">
+        <v>55</v>
+      </c>
+      <c r="E54" s="28">
+        <v>55</v>
+      </c>
+      <c r="F54" s="28">
+        <v>55</v>
+      </c>
+      <c r="G54" s="28">
+        <v>55</v>
+      </c>
+      <c r="H54" s="28">
+        <v>55</v>
+      </c>
+      <c r="I54" s="28">
+        <v>55</v>
+      </c>
+      <c r="J54" s="28">
+        <v>55</v>
+      </c>
+      <c r="K54" s="28">
+        <v>55</v>
+      </c>
+      <c r="L54" s="28">
+        <v>55</v>
+      </c>
+      <c r="M54" s="34">
+        <v>55</v>
+      </c>
+      <c r="N54" s="28">
+        <v>55</v>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
@@ -3619,7 +3675,9 @@
       <c r="L64" s="24">
         <v>155</v>
       </c>
-      <c r="M64" s="33"/>
+      <c r="M64" s="32">
+        <v>155</v>
+      </c>
       <c r="N64" s="25"/>
     </row>
     <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3765,8 +3823,12 @@
       <c r="L68" s="24">
         <v>55</v>
       </c>
-      <c r="M68" s="33"/>
-      <c r="N68" s="25"/>
+      <c r="M68" s="32">
+        <v>55</v>
+      </c>
+      <c r="N68" s="24">
+        <v>55</v>
+      </c>
     </row>
     <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
@@ -4092,8 +4154,12 @@
       <c r="K76" s="24">
         <v>155</v>
       </c>
-      <c r="L76" s="25"/>
-      <c r="M76" s="33"/>
+      <c r="L76" s="24">
+        <v>155</v>
+      </c>
+      <c r="M76" s="32">
+        <v>155</v>
+      </c>
       <c r="N76" s="25"/>
     </row>
     <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4133,7 +4199,9 @@
       <c r="L77" s="24">
         <v>155</v>
       </c>
-      <c r="M77" s="33"/>
+      <c r="M77" s="32">
+        <v>155</v>
+      </c>
       <c r="N77" s="25"/>
     </row>
     <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4253,11 +4321,11 @@
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{655976F5-71B5-40D8-AA15-048EC1E35088}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{7661EAEC-D115-4E84-AC26-798BA6392574}"/>
-    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{DB9BEF86-F4B9-4CB2-8AD1-8E0C33E3B6AD}"/>
-    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{830D50FB-31CE-471F-BD3C-A1285C37647C}"/>
-    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{0B000456-B551-4791-828E-0B18A3073EB4}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{A4B663EB-5B9E-4C5D-B28A-5F340145A6D2}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{E66ACCE2-D4E4-469A-9B74-685005E94A53}"/>
+    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{FAF1AE9F-51A7-477C-9203-FF267AD24827}"/>
+    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{05E3B03A-7029-49BB-9529-F9CEBF6670BA}"/>
+    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{733AC47C-1BDA-46A7-91AB-93764E9A5307}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B9EE5B-95B6-4B1B-A71E-3C0C1A387F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D925165D-D4E8-41A5-8E8B-3B272D1E3ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -417,9 +417,6 @@
     <t>uviorica@gmail.com</t>
   </si>
   <si>
-    <t>Malai Ungurean Viorica</t>
-  </si>
-  <si>
     <t>ttini.iordan@gmail.com</t>
   </si>
   <si>
@@ -551,6 +548,9 @@
   </si>
   <si>
     <t>Cojocaru Olga</t>
+  </si>
+  <si>
+    <t>Ungurean Viorica Malai</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,6 +633,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -813,6 +819,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,20 +1116,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O75" sqref="O75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1192,14 +1210,14 @@
       <c r="L2" s="14">
         <v>155</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="31">
         <v>155</v>
       </c>
       <c r="N2" s="14">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1236,12 +1254,12 @@
       <c r="L3" s="23">
         <v>155</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="32">
         <v>155</v>
       </c>
       <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1278,13 +1296,13 @@
       <c r="L4" s="23">
         <v>155</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="32">
         <v>155</v>
       </c>
       <c r="N4" s="24"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1314,12 +1332,14 @@
       <c r="J5" s="23">
         <v>155</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="32">
+        <v>155</v>
+      </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1356,14 +1376,14 @@
       <c r="L6" s="23">
         <v>155</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="32">
         <v>155</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1400,12 +1420,12 @@
       <c r="L7" s="23">
         <v>155</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="32">
         <v>155</v>
       </c>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
@@ -1442,12 +1462,12 @@
       <c r="L8" s="23">
         <v>155</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="32">
         <v>155</v>
       </c>
       <c r="N8" s="24"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1484,14 +1504,14 @@
       <c r="L9" s="23">
         <v>155</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="32">
         <v>155</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1525,11 +1545,15 @@
       <c r="K10" s="23">
         <v>155</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="23">
+        <v>155</v>
+      </c>
+      <c r="M10" s="32">
+        <v>155</v>
+      </c>
       <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -1566,13 +1590,13 @@
       <c r="L11" s="23">
         <v>155</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="32">
         <v>155</v>
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1596,14 +1620,22 @@
       <c r="H12" s="23">
         <v>155</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="I12" s="23">
+        <v>155</v>
+      </c>
+      <c r="J12" s="23">
+        <v>155</v>
+      </c>
+      <c r="K12" s="23">
+        <v>155</v>
+      </c>
+      <c r="L12" s="23">
+        <v>155</v>
+      </c>
+      <c r="M12" s="33"/>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1640,12 +1672,12 @@
       <c r="L13" s="23">
         <v>155</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="32">
         <v>155</v>
       </c>
       <c r="N13" s="24"/>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1682,12 +1714,12 @@
       <c r="L14" s="23">
         <v>155</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="32">
         <v>155</v>
       </c>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -1724,12 +1756,12 @@
       <c r="L15" s="23">
         <v>155</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="32">
         <v>155</v>
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -1766,14 +1798,14 @@
       <c r="L16" s="23">
         <v>155</v>
       </c>
-      <c r="M16" s="23">
+      <c r="M16" s="32">
         <v>155</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1810,12 +1842,12 @@
       <c r="L17" s="23">
         <v>155</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="32">
         <v>155</v>
       </c>
       <c r="N17" s="24"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -1852,12 +1884,12 @@
       <c r="L18" s="23">
         <v>155</v>
       </c>
-      <c r="M18" s="23">
+      <c r="M18" s="32">
         <v>155</v>
       </c>
       <c r="N18" s="24"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -1888,12 +1920,12 @@
       <c r="L19" s="23">
         <v>135</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="32">
         <v>135</v>
       </c>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -1930,14 +1962,14 @@
       <c r="L20" s="23">
         <v>155</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="32">
         <v>155</v>
       </c>
       <c r="N20" s="23">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -1974,12 +2006,12 @@
       <c r="L21" s="23">
         <v>155</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="32">
         <v>155</v>
       </c>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -1990,40 +2022,40 @@
         <v>741573383</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2060,12 +2092,12 @@
       <c r="L23" s="23">
         <v>155</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="32">
         <v>155</v>
       </c>
       <c r="N23" s="24"/>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2102,14 +2134,14 @@
       <c r="L24" s="23">
         <v>155</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="32">
         <v>155</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -2146,12 +2178,12 @@
       <c r="L25" s="23">
         <v>155</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="32">
         <v>155</v>
       </c>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -2188,12 +2220,10 @@
       <c r="L26" s="29">
         <v>155</v>
       </c>
-      <c r="M26" s="29">
-        <v>155</v>
-      </c>
+      <c r="M26" s="33"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -2230,17 +2260,17 @@
       <c r="L27" s="23">
         <v>155</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="32">
         <v>155</v>
       </c>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>171</v>
       </c>
       <c r="C28" s="9">
         <v>764888445</v>
@@ -2272,12 +2302,12 @@
       <c r="L28" s="23">
         <v>155</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="32">
         <v>155</v>
       </c>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -2314,12 +2344,12 @@
       <c r="L29" s="23">
         <v>155</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="32">
         <v>155</v>
       </c>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>70</v>
       </c>
@@ -2356,12 +2386,12 @@
       <c r="L30" s="23">
         <v>155</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="32">
         <v>155</v>
       </c>
       <c r="N30" s="24"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -2398,12 +2428,12 @@
       <c r="L31" s="23">
         <v>155</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="32">
         <v>155</v>
       </c>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>74</v>
       </c>
@@ -2440,12 +2470,12 @@
       <c r="L32" s="23">
         <v>155</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="32">
         <v>155</v>
       </c>
       <c r="N32" s="24"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -2482,14 +2512,14 @@
       <c r="L33" s="23">
         <v>155</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="32">
         <v>155</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>78</v>
       </c>
@@ -2526,12 +2556,12 @@
       <c r="L34" s="23">
         <v>155</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="32">
         <v>155</v>
       </c>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>80</v>
       </c>
@@ -2568,14 +2598,14 @@
       <c r="L35" s="23">
         <v>155</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="32">
         <v>155</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2612,12 +2642,12 @@
       <c r="L36" s="23">
         <v>155</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="32">
         <v>155</v>
       </c>
       <c r="N36" s="24"/>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -2654,12 +2684,12 @@
       <c r="L37" s="23">
         <v>155</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="32">
         <v>155</v>
       </c>
       <c r="N37" s="24"/>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>84</v>
       </c>
@@ -2696,12 +2726,12 @@
       <c r="L38" s="23">
         <v>155</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="32">
         <v>155</v>
       </c>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>86</v>
       </c>
@@ -2738,12 +2768,12 @@
       <c r="L39" s="23">
         <v>155</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="32">
         <v>155</v>
       </c>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
@@ -2780,12 +2810,12 @@
       <c r="L40" s="23">
         <v>155</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="32">
         <v>155</v>
       </c>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
@@ -2822,14 +2852,14 @@
       <c r="L41" s="23">
         <v>155</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="32">
         <v>155</v>
       </c>
       <c r="N41" s="23">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>92</v>
       </c>
@@ -2866,12 +2896,12 @@
       <c r="L42" s="23">
         <v>155</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="32">
         <v>155</v>
       </c>
       <c r="N42" s="24"/>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>94</v>
       </c>
@@ -2908,12 +2938,12 @@
       <c r="L43" s="23">
         <v>155</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="32">
         <v>155</v>
       </c>
       <c r="N43" s="24"/>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>96</v>
       </c>
@@ -2941,13 +2971,15 @@
       <c r="I44" s="23">
         <v>80</v>
       </c>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="32">
+        <v>80</v>
+      </c>
       <c r="N44" s="24"/>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>98</v>
       </c>
@@ -2984,14 +3016,14 @@
       <c r="L45" s="23">
         <v>155</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="32">
         <v>155</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>100</v>
       </c>
@@ -3028,12 +3060,12 @@
       <c r="L46" s="23">
         <v>155</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="32">
         <v>155</v>
       </c>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>102</v>
       </c>
@@ -3070,12 +3102,14 @@
       <c r="L47" s="23">
         <v>155</v>
       </c>
-      <c r="M47" s="23">
-        <v>155</v>
-      </c>
-      <c r="N47" s="24"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M47" s="32">
+        <v>155</v>
+      </c>
+      <c r="N47" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>104</v>
       </c>
@@ -3094,10 +3128,10 @@
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+      <c r="M48" s="33"/>
       <c r="N48" s="24"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>106</v>
       </c>
@@ -3134,12 +3168,12 @@
       <c r="L49" s="23">
         <v>155</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="32">
         <v>155</v>
       </c>
       <c r="N49" s="24"/>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>108</v>
       </c>
@@ -3176,14 +3210,14 @@
       <c r="L50" s="23">
         <v>155</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="32">
         <v>155</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>110</v>
       </c>
@@ -3220,15 +3254,15 @@
       <c r="L51" s="23">
         <v>155</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="32">
         <v>155</v>
       </c>
       <c r="N51" s="23">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -3252,16 +3286,16 @@
       <c r="H52" s="23">
         <v>155</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="29">
         <v>85</v>
       </c>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
+      <c r="M52" s="33"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>114</v>
       </c>
@@ -3272,45 +3306,45 @@
         <v>7796402501</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L53" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>167</v>
       </c>
       <c r="N53" s="27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>172</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>173</v>
       </c>
       <c r="C54" s="18">
         <v>37369208608</v>
@@ -3342,14 +3376,14 @@
       <c r="L54" s="27">
         <v>55</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M54" s="34">
         <v>55</v>
       </c>
       <c r="N54" s="27">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -3386,12 +3420,12 @@
       <c r="L55" s="23">
         <v>155</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="32">
         <v>155</v>
       </c>
       <c r="N55" s="24"/>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -3428,12 +3462,12 @@
       <c r="L56" s="23">
         <v>155</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="32">
         <v>155</v>
       </c>
       <c r="N56" s="24"/>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>120</v>
       </c>
@@ -3458,10 +3492,10 @@
       <c r="J57" s="24"/>
       <c r="K57" s="24"/>
       <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
+      <c r="M57" s="33"/>
       <c r="N57" s="24"/>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>122</v>
       </c>
@@ -3480,10 +3514,10 @@
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="M58" s="33"/>
       <c r="N58" s="24"/>
     </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
         <v>124</v>
       </c>
@@ -3512,10 +3546,10 @@
       <c r="J59" s="24"/>
       <c r="K59" s="24"/>
       <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+      <c r="M59" s="33"/>
       <c r="N59" s="24"/>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -3552,17 +3586,17 @@
       <c r="L60" s="23">
         <v>155</v>
       </c>
-      <c r="M60" s="23">
+      <c r="M60" s="32">
         <v>155</v>
       </c>
       <c r="N60" s="24"/>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C61" s="9">
         <v>740759994</v>
@@ -3573,22 +3607,28 @@
       <c r="E61" s="23">
         <v>155</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="23">
+        <v>155</v>
+      </c>
+      <c r="K61" s="23">
+        <v>155</v>
+      </c>
+      <c r="L61" s="23">
+        <v>155</v>
+      </c>
+      <c r="M61" s="33"/>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C62" s="10">
         <v>723191854</v>
@@ -3602,15 +3642,15 @@
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
+      <c r="M62" s="33"/>
       <c r="N62" s="24"/>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="C63" s="9">
         <v>726489020</v>
@@ -3642,17 +3682,19 @@
       <c r="L63" s="23">
         <v>155</v>
       </c>
-      <c r="M63" s="23">
-        <v>155</v>
-      </c>
-      <c r="N63" s="24"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M63" s="32">
+        <v>155</v>
+      </c>
+      <c r="N63" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>135</v>
       </c>
       <c r="C64" s="9">
         <v>745525405</v>
@@ -3684,17 +3726,17 @@
       <c r="L64" s="23">
         <v>155</v>
       </c>
-      <c r="M64" s="23">
+      <c r="M64" s="32">
         <v>155</v>
       </c>
       <c r="N64" s="24"/>
     </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="C65" s="9">
         <v>720878686</v>
@@ -3708,15 +3750,15 @@
       <c r="J65" s="24"/>
       <c r="K65" s="24"/>
       <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
+      <c r="M65" s="33"/>
       <c r="N65" s="24"/>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>138</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>139</v>
       </c>
       <c r="C66" s="9">
         <v>740074538</v>
@@ -3748,17 +3790,19 @@
       <c r="L66" s="23">
         <v>155</v>
       </c>
-      <c r="M66" s="23">
-        <v>155</v>
-      </c>
-      <c r="N66" s="24"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="M66" s="32">
+        <v>155</v>
+      </c>
+      <c r="N66" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>140</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>141</v>
       </c>
       <c r="C67" s="9">
         <v>31687728451</v>
@@ -3790,17 +3834,17 @@
       <c r="L67" s="23">
         <v>55</v>
       </c>
-      <c r="M67" s="23">
+      <c r="M67" s="32">
         <v>55</v>
       </c>
       <c r="N67" s="24"/>
     </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="C68" s="9">
         <v>373069265735</v>
@@ -3832,19 +3876,19 @@
       <c r="L68" s="23">
         <v>55</v>
       </c>
-      <c r="M68" s="23">
+      <c r="M68" s="32">
         <v>55</v>
       </c>
       <c r="N68" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>145</v>
       </c>
       <c r="C69" s="9">
         <v>740186024</v>
@@ -3876,19 +3920,19 @@
       <c r="L69" s="23">
         <v>155</v>
       </c>
-      <c r="M69" s="23">
+      <c r="M69" s="32">
         <v>155</v>
       </c>
       <c r="N69" s="23">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="C70" s="9">
         <v>37379706120</v>
@@ -3920,19 +3964,19 @@
       <c r="L70" s="23">
         <v>55</v>
       </c>
-      <c r="M70" s="23">
+      <c r="M70" s="32">
         <v>55</v>
       </c>
       <c r="N70" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="C71" s="9">
         <v>37361183234</v>
@@ -3964,19 +4008,19 @@
       <c r="L71" s="23">
         <v>55</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M71" s="32">
         <v>55</v>
       </c>
       <c r="N71" s="23">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="C72" s="9">
         <v>37369815388</v>
@@ -4008,17 +4052,17 @@
       <c r="L72" s="23">
         <v>55</v>
       </c>
-      <c r="M72" s="23">
+      <c r="M72" s="32">
         <v>55</v>
       </c>
       <c r="N72" s="24"/>
     </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="C73" s="9">
         <v>358406402278</v>
@@ -4050,19 +4094,19 @@
       <c r="L73" s="23">
         <v>155</v>
       </c>
-      <c r="M73" s="23">
+      <c r="M73" s="32">
         <v>155</v>
       </c>
       <c r="N73" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>155</v>
       </c>
       <c r="C74" s="9">
         <v>786602562</v>
@@ -4086,17 +4130,15 @@
       <c r="L74" s="23">
         <v>155</v>
       </c>
-      <c r="M74" s="23">
-        <v>155</v>
-      </c>
+      <c r="M74" s="33"/>
       <c r="N74" s="24"/>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="C75" s="9">
         <v>37379117788</v>
@@ -4128,17 +4170,17 @@
       <c r="L75" s="23">
         <v>55</v>
       </c>
-      <c r="M75" s="23">
+      <c r="M75" s="32">
         <v>55</v>
       </c>
       <c r="N75" s="24"/>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>159</v>
       </c>
       <c r="C76" s="9">
         <v>741228820</v>
@@ -4170,17 +4212,17 @@
       <c r="L76" s="23">
         <v>155</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="32">
         <v>155</v>
       </c>
       <c r="N76" s="24"/>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="C77" s="9">
         <v>741178279</v>
@@ -4212,23 +4254,23 @@
       <c r="L77" s="23">
         <v>155</v>
       </c>
-      <c r="M77" s="23">
+      <c r="M77" s="32">
         <v>155</v>
       </c>
       <c r="N77" s="24"/>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="17" t="s">
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B78" s="21" t="s">
         <v>162</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>163</v>
       </c>
       <c r="C78" s="18">
         <v>748997484</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E78" s="27">
         <v>155</v>
@@ -4254,26 +4296,26 @@
       <c r="L78" s="27">
         <v>155</v>
       </c>
-      <c r="M78" s="27">
+      <c r="M78" s="34">
         <v>155</v>
       </c>
       <c r="N78" s="24"/>
     </row>
-    <row r="79" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="C79" s="18">
         <v>726862381</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F79" s="27">
         <v>80</v>
@@ -4286,27 +4328,27 @@
       <c r="J79" s="24"/>
       <c r="K79" s="24"/>
       <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="M79" s="33"/>
       <c r="N79" s="24"/>
     </row>
-    <row r="80" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="21" t="s">
         <v>166</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>167</v>
       </c>
       <c r="C80" s="18">
         <v>729973839</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E80" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F80" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G80" s="27">
         <v>155</v>
@@ -4326,7 +4368,7 @@
       <c r="L80" s="27">
         <v>155</v>
       </c>
-      <c r="M80" s="27">
+      <c r="M80" s="34">
         <v>155</v>
       </c>
       <c r="N80" s="27">
@@ -4336,13 +4378,18 @@
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{1B814FD4-4FB7-4AF9-BA4F-CE8E642C3DE6}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{450C717D-6E17-4821-B0AE-37646EFADD95}"/>
-    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{91E5646E-1364-4FE4-936B-26561BFA4FC7}"/>
-    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{9114E1EE-A72D-4957-89E3-4B0E9C12C85C}"/>
-    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{FB557CF3-D914-40A9-B094-26BB63781771}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{90AB9FB2-EB34-473E-8F7E-17504E0D1C62}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{CB2C7EAB-972B-472F-AEDD-ECD6F611AC06}"/>
+    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{8F3DC34B-A3DB-45CC-BFD6-9F18A3FDD2D0}"/>
+    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{D8701420-0093-48FF-BB32-442CF28A3ECB}"/>
+    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{2DD1DFD9-2B49-42D7-BAFB-B1FBAFAD70B0}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{EE712939-5884-4D96-AFCD-3E2623B82F91}"/>
+    <hyperlink ref="A12" r:id="rId7" xr:uid="{A037CFDC-93D0-4DD1-B303-2B11D20A5E98}"/>
+    <hyperlink ref="A52" r:id="rId8" xr:uid="{B60EB6DD-B60F-4629-8033-BDE9D9DF8854}"/>
+    <hyperlink ref="A78" r:id="rId9" xr:uid="{8CC13D0F-EA83-437F-839A-20D4EB195CCF}"/>
+    <hyperlink ref="A74" r:id="rId10" xr:uid="{CD14D21B-E6CB-4904-B7B7-350B04F0BE60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D925165D-D4E8-41A5-8E8B-3B272D1E3ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B59E8-455E-45ED-A5CD-F0DFFA57607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,8 +1117,8 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P72" sqref="P72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3542,12 +3542,24 @@
       <c r="H59" s="29">
         <v>130</v>
       </c>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="24"/>
+      <c r="I59" s="24">
+        <v>155</v>
+      </c>
+      <c r="J59" s="24">
+        <v>155</v>
+      </c>
+      <c r="K59" s="24">
+        <v>155</v>
+      </c>
+      <c r="L59" s="24">
+        <v>155</v>
+      </c>
+      <c r="M59" s="24">
+        <v>155</v>
+      </c>
+      <c r="N59" s="24">
+        <v>155</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3B59E8-455E-45ED-A5CD-F0DFFA57607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49884FB9-C723-41B1-AFBF-52B92D7A6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,8 +1117,8 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P72" sqref="P72"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49884FB9-C723-41B1-AFBF-52B92D7A6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F00A13-BED3-4DA4-8B01-F4879E4D73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -396,12 +396,6 @@
     <t>Covaliu Oana Maria</t>
   </si>
   <si>
-    <t>dan_fara@yahoo.com</t>
-  </si>
-  <si>
-    <t>Fara Dan</t>
-  </si>
-  <si>
     <t>gabichim1@yahoo.com</t>
   </si>
   <si>
@@ -433,12 +427,6 @@
   </si>
   <si>
     <t>Gherase Claudia</t>
-  </si>
-  <si>
-    <t>catagil76@gmail.com</t>
-  </si>
-  <si>
-    <t>Miclos Gina</t>
   </si>
   <si>
     <t>roalexis71@gmail.com</t>
@@ -1117,19 +1105,19 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1205,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1257,9 +1245,11 @@
       <c r="M3" s="32">
         <v>155</v>
       </c>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N3" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1299,10 +1289,12 @@
       <c r="M4" s="32">
         <v>155</v>
       </c>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="N4" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1339,7 +1331,7 @@
       </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1380,10 +1372,10 @@
         <v>155</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1417,7 @@
       </c>
       <c r="N7" s="24"/>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
@@ -1465,9 +1457,11 @@
       <c r="M8" s="32">
         <v>155</v>
       </c>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N8" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1508,10 +1502,10 @@
         <v>155</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1553,7 +1547,7 @@
       </c>
       <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -1595,8 +1589,8 @@
       </c>
       <c r="N11" s="24"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -1635,7 +1629,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1675,9 +1669,11 @@
       <c r="M13" s="32">
         <v>155</v>
       </c>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N13" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1719,7 +1715,7 @@
       </c>
       <c r="N14" s="24"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -1761,7 +1757,7 @@
       </c>
       <c r="N15" s="24"/>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -1802,10 +1798,10 @@
         <v>155</v>
       </c>
       <c r="N16" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1845,9 +1841,11 @@
       <c r="M17" s="32">
         <v>155</v>
       </c>
-      <c r="N17" s="24"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -1889,7 +1887,7 @@
       </c>
       <c r="N18" s="24"/>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -1925,7 +1923,7 @@
       </c>
       <c r="N19" s="24"/>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -1969,7 +1967,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -2011,7 +2009,7 @@
       </c>
       <c r="N21" s="24"/>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -2022,40 +2020,40 @@
         <v>741573383</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L22" s="27" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N22" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2095,9 +2093,11 @@
       <c r="M23" s="32">
         <v>155</v>
       </c>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N23" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2138,10 +2138,10 @@
         <v>155</v>
       </c>
       <c r="N24" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="N25" s="24"/>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2223,7 @@
       <c r="M26" s="33"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="N27" s="24"/>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C28" s="9">
         <v>764888445</v>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="N28" s="24"/>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="N29" s="24"/>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
         <v>70</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="N30" s="24"/>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>74</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="N32" s="24"/>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -2516,10 +2516,10 @@
         <v>155</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>78</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>80</v>
       </c>
@@ -2602,10 +2602,10 @@
         <v>155</v>
       </c>
       <c r="N35" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2645,9 +2645,11 @@
       <c r="M36" s="32">
         <v>155</v>
       </c>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -2687,9 +2689,11 @@
       <c r="M37" s="32">
         <v>155</v>
       </c>
-      <c r="N37" s="24"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>84</v>
       </c>
@@ -2731,7 +2735,7 @@
       </c>
       <c r="N38" s="24"/>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>86</v>
       </c>
@@ -2773,7 +2777,7 @@
       </c>
       <c r="N39" s="24"/>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
@@ -2815,7 +2819,7 @@
       </c>
       <c r="N40" s="24"/>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>92</v>
       </c>
@@ -2899,9 +2903,11 @@
       <c r="M42" s="32">
         <v>155</v>
       </c>
-      <c r="N42" s="24"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N42" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
         <v>94</v>
       </c>
@@ -2941,9 +2947,11 @@
       <c r="M43" s="32">
         <v>155</v>
       </c>
-      <c r="N43" s="24"/>
-    </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N43" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>96</v>
       </c>
@@ -2977,9 +2985,11 @@
       <c r="M44" s="32">
         <v>80</v>
       </c>
-      <c r="N44" s="24"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N44" s="23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>98</v>
       </c>
@@ -3020,10 +3030,10 @@
         <v>155</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>100</v>
       </c>
@@ -3065,7 +3075,7 @@
       </c>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>102</v>
       </c>
@@ -3109,7 +3119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>104</v>
       </c>
@@ -3131,7 +3141,7 @@
       <c r="M48" s="33"/>
       <c r="N48" s="24"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>106</v>
       </c>
@@ -3173,7 +3183,7 @@
       </c>
       <c r="N49" s="24"/>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>108</v>
       </c>
@@ -3214,10 +3224,10 @@
         <v>155</v>
       </c>
       <c r="N50" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>110</v>
       </c>
@@ -3261,8 +3271,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -3295,7 +3305,7 @@
       <c r="M52" s="33"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17" t="s">
         <v>114</v>
       </c>
@@ -3306,45 +3316,45 @@
         <v>7796402501</v>
       </c>
       <c r="D53" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="K53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="M53" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="N53" s="27" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="17" t="s">
-        <v>171</v>
-      </c>
       <c r="B54" s="18" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C54" s="18">
         <v>37369208608</v>
@@ -3383,7 +3393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -3425,7 +3435,7 @@
       </c>
       <c r="N55" s="24"/>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -3465,9 +3475,11 @@
       <c r="M56" s="32">
         <v>155</v>
       </c>
-      <c r="N56" s="24"/>
-    </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N56" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="19" t="s">
         <v>120</v>
       </c>
@@ -3495,37 +3507,59 @@
       <c r="M57" s="33"/>
       <c r="N57" s="24"/>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="19" t="s">
         <v>122</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C58" s="9">
-        <v>722283194</v>
-      </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="24"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
+        <v>742083396</v>
+      </c>
+      <c r="D58" s="22">
+        <v>155</v>
+      </c>
+      <c r="E58" s="23">
+        <v>155</v>
+      </c>
+      <c r="F58" s="23">
+        <v>155</v>
+      </c>
+      <c r="G58" s="23">
+        <v>155</v>
+      </c>
+      <c r="H58" s="23">
+        <v>155</v>
+      </c>
+      <c r="I58" s="23">
+        <v>155</v>
+      </c>
+      <c r="J58" s="23">
+        <v>155</v>
+      </c>
+      <c r="K58" s="23">
+        <v>155</v>
+      </c>
+      <c r="L58" s="23">
+        <v>155</v>
+      </c>
+      <c r="M58" s="32">
+        <v>155</v>
+      </c>
+      <c r="N58" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C59" s="9">
-        <v>742083396</v>
+        <v>751700208</v>
       </c>
       <c r="D59" s="22">
         <v>155</v>
@@ -3539,133 +3573,135 @@
       <c r="G59" s="23">
         <v>155</v>
       </c>
-      <c r="H59" s="29">
-        <v>130</v>
-      </c>
-      <c r="I59" s="24">
-        <v>155</v>
-      </c>
-      <c r="J59" s="24">
-        <v>155</v>
-      </c>
-      <c r="K59" s="24">
-        <v>155</v>
-      </c>
-      <c r="L59" s="24">
-        <v>155</v>
-      </c>
-      <c r="M59" s="24">
-        <v>155</v>
-      </c>
-      <c r="N59" s="24">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H59" s="23">
+        <v>155</v>
+      </c>
+      <c r="I59" s="23">
+        <v>155</v>
+      </c>
+      <c r="J59" s="23">
+        <v>155</v>
+      </c>
+      <c r="K59" s="23">
+        <v>155</v>
+      </c>
+      <c r="L59" s="23">
+        <v>155</v>
+      </c>
+      <c r="M59" s="32">
+        <v>155</v>
+      </c>
+      <c r="N59" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B60" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="9">
+        <v>740759994</v>
+      </c>
+      <c r="D60" s="22">
+        <v>155</v>
+      </c>
+      <c r="E60" s="23">
+        <v>155</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="23">
+        <v>155</v>
+      </c>
+      <c r="K60" s="23">
+        <v>155</v>
+      </c>
+      <c r="L60" s="23">
+        <v>155</v>
+      </c>
+      <c r="M60" s="33"/>
+      <c r="N60" s="24"/>
+    </row>
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="9">
-        <v>751700208</v>
-      </c>
-      <c r="D60" s="22">
-        <v>155</v>
-      </c>
-      <c r="E60" s="23">
-        <v>155</v>
-      </c>
-      <c r="F60" s="23">
-        <v>155</v>
-      </c>
-      <c r="G60" s="23">
-        <v>155</v>
-      </c>
-      <c r="H60" s="23">
-        <v>155</v>
-      </c>
-      <c r="I60" s="23">
-        <v>155</v>
-      </c>
-      <c r="J60" s="23">
-        <v>155</v>
-      </c>
-      <c r="K60" s="23">
-        <v>155</v>
-      </c>
-      <c r="L60" s="23">
-        <v>155</v>
-      </c>
-      <c r="M60" s="32">
-        <v>155</v>
-      </c>
-      <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="B61" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="9">
-        <v>740759994</v>
-      </c>
-      <c r="D61" s="22">
-        <v>155</v>
-      </c>
-      <c r="E61" s="23">
-        <v>155</v>
-      </c>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="23">
-        <v>155</v>
-      </c>
-      <c r="K61" s="23">
-        <v>155</v>
-      </c>
-      <c r="L61" s="23">
-        <v>155</v>
-      </c>
+      <c r="C61" s="10">
+        <v>723191854</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="33"/>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20" t="s">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="10">
-        <v>723191854</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="24"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19" t="s">
+      <c r="C62" s="9">
+        <v>726489020</v>
+      </c>
+      <c r="D62" s="22">
+        <v>155</v>
+      </c>
+      <c r="E62" s="23">
+        <v>155</v>
+      </c>
+      <c r="F62" s="23">
+        <v>155</v>
+      </c>
+      <c r="G62" s="23">
+        <v>155</v>
+      </c>
+      <c r="H62" s="23">
+        <v>155</v>
+      </c>
+      <c r="I62" s="23">
+        <v>155</v>
+      </c>
+      <c r="J62" s="23">
+        <v>155</v>
+      </c>
+      <c r="K62" s="23">
+        <v>155</v>
+      </c>
+      <c r="L62" s="23">
+        <v>155</v>
+      </c>
+      <c r="M62" s="32">
+        <v>155</v>
+      </c>
+      <c r="N62" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C63" s="9">
-        <v>726489020</v>
+        <v>745525405</v>
       </c>
       <c r="D63" s="22">
         <v>155</v>
@@ -3697,11 +3733,9 @@
       <c r="M63" s="32">
         <v>155</v>
       </c>
-      <c r="N63" s="23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N63" s="24"/>
+    </row>
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>133</v>
       </c>
@@ -3709,7 +3743,7 @@
         <v>134</v>
       </c>
       <c r="C64" s="9">
-        <v>745525405</v>
+        <v>740074538</v>
       </c>
       <c r="D64" s="22">
         <v>155</v>
@@ -3741,31 +3775,55 @@
       <c r="M64" s="32">
         <v>155</v>
       </c>
-      <c r="N64" s="24"/>
-    </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="N64" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="19" t="s">
         <v>135</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C65" s="9">
-        <v>720878686</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="24"/>
-    </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31687728451</v>
+      </c>
+      <c r="D65" s="22">
+        <v>55</v>
+      </c>
+      <c r="E65" s="23">
+        <v>55</v>
+      </c>
+      <c r="F65" s="23">
+        <v>55</v>
+      </c>
+      <c r="G65" s="23">
+        <v>55</v>
+      </c>
+      <c r="H65" s="23">
+        <v>55</v>
+      </c>
+      <c r="I65" s="23">
+        <v>55</v>
+      </c>
+      <c r="J65" s="23">
+        <v>55</v>
+      </c>
+      <c r="K65" s="23">
+        <v>55</v>
+      </c>
+      <c r="L65" s="23">
+        <v>55</v>
+      </c>
+      <c r="M65" s="32">
+        <v>55</v>
+      </c>
+      <c r="N65" s="23">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>137</v>
       </c>
@@ -3773,85 +3831,87 @@
         <v>138</v>
       </c>
       <c r="C66" s="9">
-        <v>740074538</v>
+        <v>373069265735</v>
       </c>
       <c r="D66" s="22">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="L66" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="M66" s="32">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N66" s="23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C67" s="9">
-        <v>31687728451</v>
+        <v>740186024</v>
       </c>
       <c r="D67" s="22">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="L67" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="M67" s="32">
-        <v>55</v>
-      </c>
-      <c r="N67" s="24"/>
-    </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="N67" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>141</v>
       </c>
@@ -3859,7 +3919,7 @@
         <v>142</v>
       </c>
       <c r="C68" s="9">
-        <v>373069265735</v>
+        <v>37379706120</v>
       </c>
       <c r="D68" s="22">
         <v>55</v>
@@ -3895,7 +3955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>143</v>
       </c>
@@ -3903,43 +3963,43 @@
         <v>144</v>
       </c>
       <c r="C69" s="9">
-        <v>740186024</v>
+        <v>37361183234</v>
       </c>
       <c r="D69" s="22">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="L69" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="M69" s="32">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="N69" s="23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>145</v>
       </c>
@@ -3947,7 +4007,7 @@
         <v>146</v>
       </c>
       <c r="C70" s="9">
-        <v>37379706120</v>
+        <v>37369815388</v>
       </c>
       <c r="D70" s="22">
         <v>55</v>
@@ -3979,11 +4039,9 @@
       <c r="M70" s="32">
         <v>55</v>
       </c>
-      <c r="N70" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N70" s="24"/>
+    </row>
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>147</v>
       </c>
@@ -3991,43 +4049,43 @@
         <v>148</v>
       </c>
       <c r="C71" s="9">
-        <v>37361183234</v>
+        <v>358406402278</v>
       </c>
       <c r="D71" s="22">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="L71" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="M71" s="32">
-        <v>55</v>
-      </c>
-      <c r="N71" s="23">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="N71" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>149</v>
       </c>
@@ -4035,41 +4093,33 @@
         <v>150</v>
       </c>
       <c r="C72" s="9">
-        <v>37369815388</v>
+        <v>786602562</v>
       </c>
       <c r="D72" s="22">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E72" s="23">
-        <v>55</v>
-      </c>
-      <c r="F72" s="23">
-        <v>55</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="F72" s="25"/>
       <c r="G72" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H72" s="23">
-        <v>55</v>
-      </c>
-      <c r="I72" s="23">
-        <v>55</v>
-      </c>
-      <c r="J72" s="23">
-        <v>55</v>
-      </c>
-      <c r="K72" s="23">
-        <v>55</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="M72" s="32">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N72" s="24"/>
     </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
         <v>151</v>
       </c>
@@ -4077,51 +4127,49 @@
         <v>152</v>
       </c>
       <c r="C73" s="9">
-        <v>358406402278</v>
+        <v>37379117788</v>
       </c>
       <c r="D73" s="22">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="E73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="F73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="G73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="H73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="I73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="J73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="K73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="L73" s="23">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="M73" s="32">
-        <v>155</v>
-      </c>
-      <c r="N73" s="23" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N73" s="24"/>
+    </row>
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C74" s="9">
-        <v>786602562</v>
+        <v>741228820</v>
       </c>
       <c r="D74" s="22">
         <v>155</v>
@@ -4129,23 +4177,35 @@
       <c r="E74" s="23">
         <v>155</v>
       </c>
-      <c r="F74" s="25"/>
+      <c r="F74" s="23">
+        <v>155</v>
+      </c>
       <c r="G74" s="23">
         <v>155</v>
       </c>
       <c r="H74" s="23">
         <v>155</v>
       </c>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="I74" s="23">
+        <v>155</v>
+      </c>
+      <c r="J74" s="23">
+        <v>155</v>
+      </c>
+      <c r="K74" s="23">
+        <v>155</v>
+      </c>
       <c r="L74" s="23">
         <v>155</v>
       </c>
-      <c r="M74" s="33"/>
-      <c r="N74" s="24"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M74" s="32">
+        <v>155</v>
+      </c>
+      <c r="N74" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>155</v>
       </c>
@@ -4153,142 +4213,130 @@
         <v>156</v>
       </c>
       <c r="C75" s="9">
-        <v>37379117788</v>
+        <v>741178279</v>
       </c>
       <c r="D75" s="22">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="E75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="F75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="G75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="H75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="J75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="K75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="L75" s="23">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="M75" s="32">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="N75" s="24"/>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C76" s="9">
-        <v>741228820</v>
-      </c>
-      <c r="D76" s="22">
-        <v>155</v>
-      </c>
-      <c r="E76" s="23">
-        <v>155</v>
-      </c>
-      <c r="F76" s="23">
-        <v>155</v>
-      </c>
-      <c r="G76" s="23">
-        <v>155</v>
-      </c>
-      <c r="H76" s="23">
-        <v>155</v>
-      </c>
-      <c r="I76" s="23">
-        <v>155</v>
-      </c>
-      <c r="J76" s="23">
-        <v>155</v>
-      </c>
-      <c r="K76" s="23">
-        <v>155</v>
-      </c>
-      <c r="L76" s="23">
-        <v>155</v>
-      </c>
-      <c r="M76" s="32">
+      <c r="C76" s="18">
+        <v>748997484</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76" s="27">
+        <v>155</v>
+      </c>
+      <c r="F76" s="27">
+        <v>155</v>
+      </c>
+      <c r="G76" s="27">
+        <v>155</v>
+      </c>
+      <c r="H76" s="27">
+        <v>155</v>
+      </c>
+      <c r="I76" s="27">
+        <v>155</v>
+      </c>
+      <c r="J76" s="27">
+        <v>155</v>
+      </c>
+      <c r="K76" s="27">
+        <v>155</v>
+      </c>
+      <c r="L76" s="27">
+        <v>155</v>
+      </c>
+      <c r="M76" s="34">
         <v>155</v>
       </c>
       <c r="N76" s="24"/>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
+    <row r="77" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C77" s="9">
-        <v>741178279</v>
-      </c>
-      <c r="D77" s="22">
-        <v>155</v>
-      </c>
-      <c r="E77" s="23">
-        <v>155</v>
-      </c>
-      <c r="F77" s="23">
-        <v>155</v>
-      </c>
-      <c r="G77" s="23">
-        <v>155</v>
-      </c>
-      <c r="H77" s="23">
-        <v>155</v>
-      </c>
-      <c r="I77" s="23">
-        <v>155</v>
-      </c>
-      <c r="J77" s="23">
-        <v>155</v>
-      </c>
-      <c r="K77" s="23">
-        <v>155</v>
-      </c>
-      <c r="L77" s="23">
-        <v>155</v>
-      </c>
-      <c r="M77" s="32">
-        <v>155</v>
-      </c>
+      <c r="C77" s="18">
+        <v>726862381</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F77" s="27">
+        <v>80</v>
+      </c>
+      <c r="G77" s="27">
+        <v>80</v>
+      </c>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="33"/>
       <c r="N77" s="24"/>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="19" t="s">
+    <row r="78" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="17" t="s">
         <v>161</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>162</v>
       </c>
       <c r="C78" s="18">
-        <v>748997484</v>
+        <v>729973839</v>
       </c>
       <c r="D78" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="27">
-        <v>155</v>
-      </c>
-      <c r="F78" s="27">
-        <v>155</v>
+        <v>164</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>164</v>
       </c>
       <c r="G78" s="27">
         <v>155</v>
@@ -4311,30 +4359,18 @@
       <c r="M78" s="34">
         <v>155</v>
       </c>
-      <c r="N78" s="24"/>
-    </row>
-    <row r="79" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="18">
-        <v>726862381</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F79" s="27">
-        <v>80</v>
-      </c>
-      <c r="G79" s="27">
-        <v>80</v>
-      </c>
+      <c r="N78" s="27">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="17"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
       <c r="H79" s="24"/>
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
@@ -4343,65 +4379,32 @@
       <c r="M79" s="33"/>
       <c r="N79" s="24"/>
     </row>
-    <row r="80" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="18">
-        <v>729973839</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F80" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="G80" s="27">
-        <v>155</v>
-      </c>
-      <c r="H80" s="27">
-        <v>155</v>
-      </c>
-      <c r="I80" s="27">
-        <v>155</v>
-      </c>
-      <c r="J80" s="27">
-        <v>155</v>
-      </c>
-      <c r="K80" s="27">
-        <v>155</v>
-      </c>
-      <c r="L80" s="27">
-        <v>155</v>
-      </c>
-      <c r="M80" s="34">
-        <v>155</v>
-      </c>
-      <c r="N80" s="27">
-        <v>155</v>
-      </c>
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="17"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="27"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{90AB9FB2-EB34-473E-8F7E-17504E0D1C62}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{CB2C7EAB-972B-472F-AEDD-ECD6F611AC06}"/>
-    <hyperlink ref="A59" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{8F3DC34B-A3DB-45CC-BFD6-9F18A3FDD2D0}"/>
-    <hyperlink ref="A63" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{D8701420-0093-48FF-BB32-442CF28A3ECB}"/>
-    <hyperlink ref="A67" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{2DD1DFD9-2B49-42D7-BAFB-B1FBAFAD70B0}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{EE712939-5884-4D96-AFCD-3E2623B82F91}"/>
-    <hyperlink ref="A12" r:id="rId7" xr:uid="{A037CFDC-93D0-4DD1-B303-2B11D20A5E98}"/>
-    <hyperlink ref="A52" r:id="rId8" xr:uid="{B60EB6DD-B60F-4629-8033-BDE9D9DF8854}"/>
-    <hyperlink ref="A78" r:id="rId9" xr:uid="{8CC13D0F-EA83-437F-839A-20D4EB195CCF}"/>
-    <hyperlink ref="A74" r:id="rId10" xr:uid="{CD14D21B-E6CB-4904-B7B7-350B04F0BE60}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{A64515B6-354F-431D-AA2A-2EDE8031BB4F}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{45F85240-408F-4EA8-AA83-525626E27F3B}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{F7269E48-E3A2-4D53-B12B-00BB884CD3C5}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{6A564983-40E4-47B3-BA23-8BD62B4FB277}"/>
+    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{AC16AB5E-D3A1-405C-90EE-8B030829FF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F00A13-BED3-4DA4-8B01-F4879E4D73EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6EF2D-CB4B-4A94-82E7-4FD1C0EF1725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,9 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,7 +1545,9 @@
       <c r="M10" s="32">
         <v>155</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
@@ -1587,7 +1589,9 @@
       <c r="M11" s="32">
         <v>155</v>
       </c>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
@@ -1713,7 +1717,9 @@
       <c r="M14" s="32">
         <v>155</v>
       </c>
-      <c r="N14" s="24"/>
+      <c r="N14" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
@@ -1755,7 +1761,9 @@
       <c r="M15" s="32">
         <v>155</v>
       </c>
-      <c r="N15" s="24"/>
+      <c r="N15" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
@@ -1885,7 +1893,9 @@
       <c r="M18" s="32">
         <v>155</v>
       </c>
-      <c r="N18" s="24"/>
+      <c r="N18" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
@@ -1921,7 +1931,9 @@
       <c r="M19" s="32">
         <v>135</v>
       </c>
-      <c r="N19" s="24"/>
+      <c r="N19" s="23">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
@@ -2007,7 +2019,9 @@
       <c r="M21" s="32">
         <v>155</v>
       </c>
-      <c r="N21" s="24"/>
+      <c r="N21" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
@@ -2181,7 +2195,9 @@
       <c r="M25" s="32">
         <v>155</v>
       </c>
-      <c r="N25" s="24"/>
+      <c r="N25" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
@@ -2263,7 +2279,9 @@
       <c r="M27" s="32">
         <v>155</v>
       </c>
-      <c r="N27" s="24"/>
+      <c r="N27" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
@@ -2347,7 +2365,9 @@
       <c r="M29" s="32">
         <v>155</v>
       </c>
-      <c r="N29" s="24"/>
+      <c r="N29" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
@@ -2389,7 +2409,9 @@
       <c r="M30" s="32">
         <v>155</v>
       </c>
-      <c r="N30" s="24"/>
+      <c r="N30" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
@@ -2473,7 +2495,9 @@
       <c r="M32" s="32">
         <v>155</v>
       </c>
-      <c r="N32" s="24"/>
+      <c r="N32" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
@@ -2733,7 +2757,9 @@
       <c r="M38" s="32">
         <v>155</v>
       </c>
-      <c r="N38" s="24"/>
+      <c r="N38" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
@@ -2775,7 +2801,9 @@
       <c r="M39" s="32">
         <v>155</v>
       </c>
-      <c r="N39" s="24"/>
+      <c r="N39" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
@@ -2817,7 +2845,9 @@
       <c r="M40" s="32">
         <v>155</v>
       </c>
-      <c r="N40" s="24"/>
+      <c r="N40" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
@@ -2979,9 +3009,15 @@
       <c r="I44" s="23">
         <v>80</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="J44" s="23">
+        <v>80</v>
+      </c>
+      <c r="K44" s="23">
+        <v>80</v>
+      </c>
+      <c r="L44" s="23">
+        <v>80</v>
+      </c>
       <c r="M44" s="32">
         <v>80</v>
       </c>
@@ -3073,7 +3109,9 @@
       <c r="M46" s="32">
         <v>155</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
@@ -3181,7 +3219,9 @@
       <c r="M49" s="32">
         <v>155</v>
       </c>
-      <c r="N49" s="24"/>
+      <c r="N49" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
@@ -3433,7 +3473,9 @@
       <c r="M55" s="32">
         <v>155</v>
       </c>
-      <c r="N55" s="24"/>
+      <c r="N55" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
@@ -3611,10 +3653,18 @@
       <c r="E60" s="23">
         <v>155</v>
       </c>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
+      <c r="F60" s="23">
+        <v>155</v>
+      </c>
+      <c r="G60" s="23">
+        <v>155</v>
+      </c>
+      <c r="H60" s="23">
+        <v>155</v>
+      </c>
+      <c r="I60" s="23">
+        <v>155</v>
+      </c>
       <c r="J60" s="23">
         <v>155</v>
       </c>
@@ -3624,7 +3674,9 @@
       <c r="L60" s="23">
         <v>155</v>
       </c>
-      <c r="M60" s="33"/>
+      <c r="M60" s="32">
+        <v>155</v>
+      </c>
       <c r="N60" s="24"/>
     </row>
     <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3733,7 +3785,9 @@
       <c r="M63" s="32">
         <v>155</v>
       </c>
-      <c r="N63" s="24"/>
+      <c r="N63" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
@@ -4039,7 +4093,9 @@
       <c r="M70" s="32">
         <v>55</v>
       </c>
-      <c r="N70" s="24"/>
+      <c r="N70" s="23">
+        <v>55</v>
+      </c>
     </row>
     <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
@@ -4287,7 +4343,9 @@
       <c r="M76" s="34">
         <v>155</v>
       </c>
-      <c r="N76" s="24"/>
+      <c r="N76" s="27">
+        <v>155</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="17" t="s">
@@ -4398,11 +4456,11 @@
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{A64515B6-354F-431D-AA2A-2EDE8031BB4F}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{45F85240-408F-4EA8-AA83-525626E27F3B}"/>
-    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{F7269E48-E3A2-4D53-B12B-00BB884CD3C5}"/>
-    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{6A564983-40E4-47B3-BA23-8BD62B4FB277}"/>
-    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{AC16AB5E-D3A1-405C-90EE-8B030829FF8E}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{41B69BA4-A911-49B5-82CE-2A4C1D8C97DB}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{95D5FB2D-79D0-44E9-90AC-38BC5B685A9D}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{C2252BB5-13FA-4523-8346-DD767D33CCAE}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{507E3568-201F-4457-A65F-8357876A00D4}"/>
+    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{6AEE2D77-50D7-4AC0-9368-AF5807A2E0AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A6EF2D-CB4B-4A94-82E7-4FD1C0EF1725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05DF33A-7E5B-4FC4-A9BC-C148D697A20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,9 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1415,7 +1415,9 @@
       <c r="M7" s="32">
         <v>155</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
@@ -2323,7 +2325,9 @@
       <c r="M28" s="32">
         <v>155</v>
       </c>
-      <c r="N28" s="24"/>
+      <c r="N28" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
@@ -2583,7 +2587,9 @@
       <c r="M34" s="32">
         <v>155</v>
       </c>
-      <c r="N34" s="24"/>
+      <c r="N34" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
@@ -4157,16 +4163,24 @@
       <c r="E72" s="23">
         <v>155</v>
       </c>
-      <c r="F72" s="25"/>
+      <c r="F72" s="23">
+        <v>150</v>
+      </c>
       <c r="G72" s="23">
         <v>155</v>
       </c>
       <c r="H72" s="23">
         <v>155</v>
       </c>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="I72" s="23">
+        <v>150</v>
+      </c>
+      <c r="J72" s="23">
+        <v>150</v>
+      </c>
+      <c r="K72" s="23">
+        <v>150</v>
+      </c>
       <c r="L72" s="23">
         <v>155</v>
       </c>
@@ -4301,7 +4315,9 @@
       <c r="M75" s="32">
         <v>155</v>
       </c>
-      <c r="N75" s="24"/>
+      <c r="N75" s="23">
+        <v>155</v>
+      </c>
     </row>
     <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="17" t="s">
@@ -4456,11 +4472,11 @@
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{41B69BA4-A911-49B5-82CE-2A4C1D8C97DB}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{95D5FB2D-79D0-44E9-90AC-38BC5B685A9D}"/>
-    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{C2252BB5-13FA-4523-8346-DD767D33CCAE}"/>
-    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{507E3568-201F-4457-A65F-8357876A00D4}"/>
-    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{6AEE2D77-50D7-4AC0-9368-AF5807A2E0AC}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{DD22B053-A5EA-46D7-9804-BADC9A4575F2}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{D30214ED-E25B-48BB-9AD1-551CFE39272C}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{60474E43-34DA-4667-9DB5-8D44562FE8D7}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{83A99F42-9A6A-4802-A372-1A4CB3060513}"/>
+    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{4DA30CF2-A918-4EC3-83A4-7E708F9F9F4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05DF33A-7E5B-4FC4-A9BC-C148D697A20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6075F99B-FBC9-4D0F-A9EF-D82D82746EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1104,9 +1104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4472,11 +4472,11 @@
   </sheetData>
   <autoFilter ref="A1:N80" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{DD22B053-A5EA-46D7-9804-BADC9A4575F2}"/>
-    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{D30214ED-E25B-48BB-9AD1-551CFE39272C}"/>
-    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{60474E43-34DA-4667-9DB5-8D44562FE8D7}"/>
-    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{83A99F42-9A6A-4802-A372-1A4CB3060513}"/>
-    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{4DA30CF2-A918-4EC3-83A4-7E708F9F9F4F}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{6596F4F4-A9E1-4423-80C2-4874407B5E4D}"/>
+    <hyperlink ref="A57" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{DE7BBF02-97ED-4619-8A4E-89E7EE3B6266}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{B91C8773-104F-486B-B6B0-69FAB65A4AA8}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{4E335888-F0D4-47E0-9622-968D94E5D5D5}"/>
+    <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{439E1C50-0B8F-4455-BD01-4F22541BD1E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/listacanal3.xlsx
+++ b/app/fisierele/listacanal3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6075F99B-FBC9-4D0F-A9EF-D82D82746EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B080B01-225F-4EAD-9BF9-D63912F45B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="172">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -539,6 +539,12 @@
   </si>
   <si>
     <t>Ungurean Viorica Malai</t>
+  </si>
+  <si>
+    <t>lucia.marchis@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lucia Marchis</t>
   </si>
 </sst>
 </file>
@@ -1105,19 +1111,19 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.90625" customWidth="1"/>
-    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1331,7 +1337,7 @@
       </c>
       <c r="N5" s="24"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>26</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>28</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>32</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1641,7 @@
       <c r="M12" s="33"/>
       <c r="N12" s="24"/>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>38</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>40</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -1767,7 +1773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>44</v>
       </c>
@@ -1811,7 +1817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>46</v>
       </c>
@@ -1855,7 +1861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>50</v>
       </c>
@@ -1937,7 +1943,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>54</v>
       </c>
@@ -2025,7 +2031,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>58</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>62</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>64</v>
       </c>
@@ -2241,7 +2247,7 @@
       <c r="M26" s="33"/>
       <c r="N26" s="24"/>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>66</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>165</v>
       </c>
@@ -2329,7 +2335,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
         <v>70</v>
       </c>
@@ -2417,7 +2423,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>72</v>
       </c>
@@ -2459,7 +2465,7 @@
       </c>
       <c r="N31" s="24"/>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>74</v>
       </c>
@@ -2503,7 +2509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>76</v>
       </c>
@@ -2547,7 +2553,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>78</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>80</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>82</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>84</v>
       </c>
@@ -2767,7 +2773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>86</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>88</v>
       </c>
@@ -2855,7 +2861,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>92</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>94</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>96</v>
       </c>
@@ -3031,7 +3037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>98</v>
       </c>
@@ -3075,7 +3081,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>100</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>102</v>
       </c>
@@ -3163,7 +3169,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>104</v>
       </c>
@@ -3185,7 +3191,7 @@
       <c r="M48" s="33"/>
       <c r="N48" s="24"/>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>106</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>108</v>
       </c>
@@ -3273,7 +3279,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>110</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>112</v>
       </c>
@@ -3351,7 +3357,7 @@
       <c r="M52" s="33"/>
       <c r="N52" s="24"/>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
         <v>114</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
         <v>167</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>116</v>
       </c>
@@ -3483,7 +3489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
         <v>120</v>
       </c>
@@ -3555,7 +3561,7 @@
       <c r="M57" s="33"/>
       <c r="N57" s="24"/>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
         <v>122</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>124</v>
       </c>
@@ -3643,7 +3649,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>126</v>
       </c>
@@ -3685,7 +3691,7 @@
       </c>
       <c r="N60" s="24"/>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>127</v>
       </c>
@@ -3707,7 +3713,7 @@
       <c r="M61" s="33"/>
       <c r="N61" s="24"/>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
         <v>129</v>
       </c>
@@ -3751,7 +3757,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>131</v>
       </c>
@@ -3795,7 +3801,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>133</v>
       </c>
@@ -3839,7 +3845,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>135</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>137</v>
       </c>
@@ -3927,7 +3933,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>139</v>
       </c>
@@ -3971,7 +3977,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>141</v>
       </c>
@@ -4015,7 +4021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>143</v>
       </c>
@@ -4059,7 +4065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>145</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>147</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>149</v>
       </c>
@@ -4189,7 +4195,7 @@
       </c>
       <c r="N72" s="24"/>
     </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>151</v>
       </c>
@@ -4231,7 +4237,7 @@
       </c>
       <c r="N73" s="24"/>
     </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>153</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>155</v>
       </c>
@@ -4319,7 +4325,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
         <v>157</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
         <v>159</v>
       </c>
@@ -4393,7 +4399,7 @@
       <c r="M77" s="33"/>
       <c r="N77" s="24"/>
     </row>
-    <row r="78" spans="1:14" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="17" t="s">
         <v>161</v>
       </c>
@@ -4437,23 +4443,51 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="17"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="24"/>
-    </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C79" s="18">
+        <v>723380580</v>
+      </c>
+      <c r="D79" s="22">
+        <v>155</v>
+      </c>
+      <c r="E79" s="23">
+        <v>155</v>
+      </c>
+      <c r="F79" s="23">
+        <v>155</v>
+      </c>
+      <c r="G79" s="23">
+        <v>155</v>
+      </c>
+      <c r="H79" s="23">
+        <v>155</v>
+      </c>
+      <c r="I79" s="23">
+        <v>155</v>
+      </c>
+      <c r="J79" s="23">
+        <v>155</v>
+      </c>
+      <c r="K79" s="23">
+        <v>155</v>
+      </c>
+      <c r="L79" s="23">
+        <v>155</v>
+      </c>
+      <c r="M79" s="32">
+        <v>155</v>
+      </c>
+      <c r="N79" s="23">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="17"/>
       <c r="B80" s="21"/>
       <c r="C80" s="18"/>
@@ -4477,8 +4511,9 @@
     <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{B91C8773-104F-486B-B6B0-69FAB65A4AA8}"/>
     <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{4E335888-F0D4-47E0-9622-968D94E5D5D5}"/>
     <hyperlink ref="A65" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{439E1C50-0B8F-4455-BD01-4F22541BD1E1}"/>
+    <hyperlink ref="A79" r:id="rId6" xr:uid="{24342723-2134-463C-B205-464558FF8B40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>